--- a/Infraestructura/Matriz_Infraestructuras_2019v2.xlsx
+++ b/Infraestructura/Matriz_Infraestructuras_2019v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmadrid/Documents/GitHub/Dotaciones2019/Infraestructura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C2E8C8-5D00-0843-A6FE-82F6CA5EFEB5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602EB742-96B8-2646-B3CC-ACD0C539AACA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="455">
   <si>
     <t xml:space="preserve">Regional </t>
   </si>
@@ -1648,6 +1648,9 @@
   </si>
   <si>
     <t>FALTA DOTACION</t>
+  </si>
+  <si>
+    <t>Barrancabermeja</t>
   </si>
 </sst>
 </file>
@@ -5430,9 +5433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S244"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="137" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P220" sqref="P220"/>
+      <selection pane="bottomLeft" activeCell="K230" sqref="K230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -5440,18 +5443,18 @@
     <col min="1" max="1" width="4.5" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="31" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="31" customWidth="1"/>
     <col min="5" max="5" width="16" style="31" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="31" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="31" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" style="31" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="31" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="31" customWidth="1"/>
     <col min="10" max="10" width="21.5" style="31" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="47.5" style="37" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.1640625" style="37" customWidth="1"/>
+    <col min="12" max="12" width="47.5" style="37" customWidth="1"/>
     <col min="13" max="13" width="47.5" style="33" customWidth="1"/>
-    <col min="14" max="14" width="26" style="31" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1640625" style="31" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="26" style="31" customWidth="1"/>
+    <col min="15" max="15" width="24.1640625" style="31" customWidth="1"/>
     <col min="16" max="16" width="49" style="37" customWidth="1"/>
     <col min="17" max="17" width="19" style="37" customWidth="1"/>
     <col min="18" max="18" width="94" style="31" hidden="1" customWidth="1"/>
@@ -5593,7 +5596,9 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="30" customFormat="1" ht="149.25" customHeight="1">
-      <c r="A4" s="27"/>
+      <c r="A4" s="27">
+        <v>2</v>
+      </c>
       <c r="B4" s="64" t="s">
         <v>182</v>
       </c>
@@ -5627,7 +5632,7 @@
     </row>
     <row r="5" spans="1:19" s="30" customFormat="1" ht="176">
       <c r="A5" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>11</v>
@@ -5684,7 +5689,7 @@
     </row>
     <row r="6" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A6" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>14</v>
@@ -5741,7 +5746,7 @@
     </row>
     <row r="7" spans="1:19" s="30" customFormat="1" ht="128">
       <c r="A7" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>15</v>
@@ -5798,7 +5803,7 @@
     </row>
     <row r="8" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A8" s="27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>15</v>
@@ -5855,7 +5860,7 @@
     </row>
     <row r="9" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A9" s="27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>19</v>
@@ -5910,7 +5915,7 @@
     </row>
     <row r="10" spans="1:19" s="30" customFormat="1" ht="54.75" customHeight="1">
       <c r="A10" s="27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>22</v>
@@ -5967,7 +5972,7 @@
     </row>
     <row r="11" spans="1:19" s="30" customFormat="1" ht="160">
       <c r="A11" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>25</v>
@@ -6024,7 +6029,7 @@
     </row>
     <row r="12" spans="1:19" s="30" customFormat="1" ht="36" customHeight="1">
       <c r="A12" s="27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>25</v>
@@ -6081,7 +6086,7 @@
     </row>
     <row r="13" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A13" s="27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>7</v>
@@ -6132,7 +6137,7 @@
     </row>
     <row r="14" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A14" s="27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>31</v>
@@ -6185,7 +6190,7 @@
     </row>
     <row r="15" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A15" s="27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>34</v>
@@ -6243,7 +6248,7 @@
     </row>
     <row r="16" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A16" s="27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>34</v>
@@ -6300,7 +6305,7 @@
     </row>
     <row r="17" spans="1:19" s="30" customFormat="1" ht="64">
       <c r="A17" s="27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>39</v>
@@ -6357,7 +6362,7 @@
     </row>
     <row r="18" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A18" s="27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>19</v>
@@ -6410,7 +6415,7 @@
     </row>
     <row r="19" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A19" s="27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>19</v>
@@ -6461,7 +6466,7 @@
     </row>
     <row r="20" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A20" s="27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>22</v>
@@ -6514,7 +6519,7 @@
     </row>
     <row r="21" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A21" s="27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>22</v>
@@ -6567,7 +6572,7 @@
     </row>
     <row r="22" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A22" s="27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>25</v>
@@ -6618,7 +6623,7 @@
     </row>
     <row r="23" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A23" s="27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>54</v>
@@ -6677,7 +6682,7 @@
     </row>
     <row r="24" spans="1:19" s="30" customFormat="1" ht="118.5" customHeight="1">
       <c r="A24" s="27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>40</v>
@@ -6734,7 +6739,7 @@
     </row>
     <row r="25" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A25" s="27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>10</v>
@@ -6789,7 +6794,7 @@
     </row>
     <row r="26" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A26" s="27">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>60</v>
@@ -6841,7 +6846,7 @@
     </row>
     <row r="27" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A27" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>60</v>
@@ -6893,7 +6898,7 @@
     </row>
     <row r="28" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A28" s="27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>60</v>
@@ -6945,7 +6950,7 @@
     </row>
     <row r="29" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A29" s="27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>60</v>
@@ -6997,7 +7002,7 @@
     </row>
     <row r="30" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A30" s="27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>60</v>
@@ -7049,7 +7054,7 @@
     </row>
     <row r="31" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A31" s="27">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>60</v>
@@ -7101,7 +7106,7 @@
     </row>
     <row r="32" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A32" s="27">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>60</v>
@@ -7153,7 +7158,7 @@
     </row>
     <row r="33" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A33" s="27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>60</v>
@@ -7205,7 +7210,7 @@
     </row>
     <row r="34" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A34" s="27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>60</v>
@@ -7257,7 +7262,7 @@
     </row>
     <row r="35" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A35" s="27">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>60</v>
@@ -7309,7 +7314,7 @@
     </row>
     <row r="36" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A36" s="27">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>72</v>
@@ -7366,7 +7371,7 @@
     </row>
     <row r="37" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A37" s="27">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>72</v>
@@ -7422,7 +7427,7 @@
     </row>
     <row r="38" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A38" s="27">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>72</v>
@@ -7478,7 +7483,7 @@
     </row>
     <row r="39" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A39" s="27">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>72</v>
@@ -7534,7 +7539,7 @@
     </row>
     <row r="40" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A40" s="27">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>72</v>
@@ -7590,7 +7595,7 @@
     </row>
     <row r="41" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A41" s="27">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>72</v>
@@ -7647,7 +7652,7 @@
     </row>
     <row r="42" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A42" s="27">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>72</v>
@@ -7703,7 +7708,7 @@
     </row>
     <row r="43" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A43" s="27">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>72</v>
@@ -7759,7 +7764,7 @@
     </row>
     <row r="44" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A44" s="27">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>72</v>
@@ -7816,7 +7821,7 @@
     </row>
     <row r="45" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A45" s="27">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>72</v>
@@ -7872,7 +7877,7 @@
     </row>
     <row r="46" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A46" s="27">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>72</v>
@@ -7929,7 +7934,7 @@
     </row>
     <row r="47" spans="1:19" s="30" customFormat="1" ht="64">
       <c r="A47" s="27">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>72</v>
@@ -7985,7 +7990,7 @@
     </row>
     <row r="48" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A48" s="27">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>72</v>
@@ -8041,7 +8046,7 @@
     </row>
     <row r="49" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A49" s="27">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>72</v>
@@ -8097,7 +8102,7 @@
     </row>
     <row r="50" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A50" s="27">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>72</v>
@@ -8147,7 +8152,7 @@
     </row>
     <row r="51" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A51" s="27">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>72</v>
@@ -8204,7 +8209,7 @@
     </row>
     <row r="52" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A52" s="27">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>72</v>
@@ -8260,7 +8265,7 @@
     </row>
     <row r="53" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A53" s="27">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>72</v>
@@ -8316,7 +8321,7 @@
     </row>
     <row r="54" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A54" s="27">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>72</v>
@@ -8372,7 +8377,7 @@
     </row>
     <row r="55" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A55" s="27">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>72</v>
@@ -8428,7 +8433,7 @@
     </row>
     <row r="56" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A56" s="27">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>72</v>
@@ -8484,7 +8489,7 @@
     </row>
     <row r="57" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A57" s="27">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>72</v>
@@ -8540,7 +8545,7 @@
     </row>
     <row r="58" spans="1:19" s="30" customFormat="1" ht="96">
       <c r="A58" s="27">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>72</v>
@@ -8595,7 +8600,7 @@
     </row>
     <row r="59" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A59" s="27">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>99</v>
@@ -8649,7 +8654,7 @@
     </row>
     <row r="60" spans="1:19" s="30" customFormat="1" ht="144">
       <c r="A60" s="27">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>99</v>
@@ -8703,7 +8708,7 @@
     </row>
     <row r="61" spans="1:19" s="30" customFormat="1" ht="64">
       <c r="A61" s="27">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>99</v>
@@ -8757,7 +8762,7 @@
     </row>
     <row r="62" spans="1:19" s="30" customFormat="1" ht="96">
       <c r="A62" s="27">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>99</v>
@@ -8811,7 +8816,7 @@
     </row>
     <row r="63" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A63" s="27">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>39</v>
@@ -8868,7 +8873,7 @@
     </row>
     <row r="64" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A64" s="27">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>39</v>
@@ -8926,7 +8931,7 @@
     </row>
     <row r="65" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A65" s="27">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>15</v>
@@ -8983,7 +8988,7 @@
     </row>
     <row r="66" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A66" s="27">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>106</v>
@@ -9037,7 +9042,7 @@
     </row>
     <row r="67" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A67" s="27">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>108</v>
@@ -9092,7 +9097,7 @@
     </row>
     <row r="68" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A68" s="27">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>110</v>
@@ -9146,7 +9151,7 @@
     </row>
     <row r="69" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A69" s="27">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>112</v>
@@ -9201,7 +9206,7 @@
     </row>
     <row r="70" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A70" s="27">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>54</v>
@@ -9257,7 +9262,7 @@
     </row>
     <row r="71" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A71" s="27">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>115</v>
@@ -9311,7 +9316,7 @@
     </row>
     <row r="72" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A72" s="27">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>31</v>
@@ -9368,7 +9373,7 @@
     </row>
     <row r="73" spans="1:19" s="30" customFormat="1" ht="96">
       <c r="A73" s="27">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>60</v>
@@ -9425,7 +9430,7 @@
     </row>
     <row r="74" spans="1:19" s="30" customFormat="1" ht="80">
       <c r="A74" s="27">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>60</v>
@@ -9482,7 +9487,7 @@
     </row>
     <row r="75" spans="1:19" s="30" customFormat="1" ht="80">
       <c r="A75" s="27">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>60</v>
@@ -9539,7 +9544,7 @@
     </row>
     <row r="76" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A76" s="27">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>60</v>
@@ -9596,7 +9601,7 @@
     </row>
     <row r="77" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A77" s="27">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>72</v>
@@ -9653,7 +9658,7 @@
     </row>
     <row r="78" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A78" s="27">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>72</v>
@@ -9710,7 +9715,7 @@
     </row>
     <row r="79" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A79" s="27">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>72</v>
@@ -9767,7 +9772,7 @@
     </row>
     <row r="80" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A80" s="27">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>72</v>
@@ -9824,7 +9829,7 @@
     </row>
     <row r="81" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A81" s="27">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>72</v>
@@ -9881,7 +9886,7 @@
     </row>
     <row r="82" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A82" s="27">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>72</v>
@@ -9938,7 +9943,7 @@
     </row>
     <row r="83" spans="1:19" s="30" customFormat="1" ht="80">
       <c r="A83" s="27">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>39</v>
@@ -9995,7 +10000,7 @@
     </row>
     <row r="84" spans="1:19" s="30" customFormat="1" ht="32">
       <c r="A84" s="27">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>19</v>
@@ -10051,7 +10056,7 @@
     </row>
     <row r="85" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A85" s="27">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>19</v>
@@ -10106,7 +10111,7 @@
     </row>
     <row r="86" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A86" s="27">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>19</v>
@@ -10163,7 +10168,7 @@
     </row>
     <row r="87" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A87" s="27">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>19</v>
@@ -10218,7 +10223,7 @@
     </row>
     <row r="88" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A88" s="27">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>19</v>
@@ -10273,7 +10278,7 @@
     </row>
     <row r="89" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A89" s="27">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>19</v>
@@ -10328,7 +10333,7 @@
     </row>
     <row r="90" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A90" s="27">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>19</v>
@@ -10383,7 +10388,7 @@
     </row>
     <row r="91" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A91" s="27">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>181</v>
@@ -10440,7 +10445,7 @@
     </row>
     <row r="92" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A92" s="27">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B92" s="15" t="s">
         <v>181</v>
@@ -10497,7 +10502,7 @@
     </row>
     <row r="93" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A93" s="27">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>181</v>
@@ -10554,7 +10559,7 @@
     </row>
     <row r="94" spans="1:19" s="30" customFormat="1" ht="38.25" customHeight="1">
       <c r="A94" s="27">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>54</v>
@@ -10611,7 +10616,7 @@
     </row>
     <row r="95" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A95" s="27">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>182</v>
@@ -10658,7 +10663,7 @@
     </row>
     <row r="96" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A96" s="27">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>182</v>
@@ -10705,7 +10710,7 @@
     </row>
     <row r="97" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A97" s="27">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B97" s="15" t="s">
         <v>182</v>
@@ -10752,7 +10757,7 @@
     </row>
     <row r="98" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A98" s="27">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>182</v>
@@ -10799,7 +10804,7 @@
     </row>
     <row r="99" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A99" s="27">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>182</v>
@@ -10846,7 +10851,7 @@
     </row>
     <row r="100" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A100" s="27">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>182</v>
@@ -10893,7 +10898,7 @@
     </row>
     <row r="101" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A101" s="27">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B101" s="15" t="s">
         <v>182</v>
@@ -10940,7 +10945,7 @@
     </row>
     <row r="102" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A102" s="27">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>182</v>
@@ -10987,7 +10992,7 @@
     </row>
     <row r="103" spans="1:19" s="30" customFormat="1" ht="48">
       <c r="A103" s="27">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>72</v>
@@ -11044,7 +11049,7 @@
     </row>
     <row r="104" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A104" s="27">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>200</v>
@@ -11099,7 +11104,7 @@
     </row>
     <row r="105" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A105" s="27">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>39</v>
@@ -11154,7 +11159,7 @@
     </row>
     <row r="106" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A106" s="27">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>39</v>
@@ -11209,7 +11214,7 @@
     </row>
     <row r="107" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A107" s="27">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B107" s="15" t="s">
         <v>39</v>
@@ -11264,7 +11269,7 @@
     </row>
     <row r="108" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A108" s="27">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>39</v>
@@ -11320,7 +11325,7 @@
     </row>
     <row r="109" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A109" s="27">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>39</v>
@@ -11375,7 +11380,7 @@
     </row>
     <row r="110" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A110" s="27">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>19</v>
@@ -11430,7 +11435,7 @@
     </row>
     <row r="111" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A111" s="27">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>19</v>
@@ -11485,7 +11490,7 @@
     </row>
     <row r="112" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A112" s="27">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="63" t="s">
         <v>108</v>
@@ -11540,7 +11545,7 @@
     </row>
     <row r="113" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A113" s="27">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>108</v>
@@ -11595,7 +11600,7 @@
     </row>
     <row r="114" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A114" s="27">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>110</v>
@@ -11650,7 +11655,7 @@
     </row>
     <row r="115" spans="1:19" s="30" customFormat="1" ht="58.5" customHeight="1">
       <c r="A115" s="27">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>227</v>
@@ -11707,7 +11712,7 @@
     </row>
     <row r="116" spans="1:19" s="30" customFormat="1" ht="96">
       <c r="A116" s="27">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>15</v>
@@ -11765,7 +11770,7 @@
     </row>
     <row r="117" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A117" s="27">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>115</v>
@@ -11820,7 +11825,7 @@
     </row>
     <row r="118" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A118" s="27">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>40</v>
@@ -11870,7 +11875,7 @@
     </row>
     <row r="119" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A119" s="27">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B119" s="15" t="s">
         <v>40</v>
@@ -11920,7 +11925,7 @@
     </row>
     <row r="120" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A120" s="27">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>31</v>
@@ -11970,7 +11975,7 @@
     </row>
     <row r="121" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A121" s="27">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>31</v>
@@ -12020,7 +12025,7 @@
     </row>
     <row r="122" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A122" s="27">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B122" s="15" t="s">
         <v>31</v>
@@ -12070,7 +12075,7 @@
     </row>
     <row r="123" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A123" s="27">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>31</v>
@@ -12120,7 +12125,7 @@
     </row>
     <row r="124" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A124" s="27">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B124" s="64" t="s">
         <v>31</v>
@@ -12161,7 +12166,9 @@
       <c r="S124" s="53"/>
     </row>
     <row r="125" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A125" s="27"/>
+      <c r="A125" s="27">
+        <v>123</v>
+      </c>
       <c r="B125" s="64" t="s">
         <v>380</v>
       </c>
@@ -12192,7 +12199,9 @@
       <c r="S125" s="53"/>
     </row>
     <row r="126" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A126" s="27"/>
+      <c r="A126" s="27">
+        <v>124</v>
+      </c>
       <c r="B126" s="64" t="s">
         <v>382</v>
       </c>
@@ -12223,7 +12232,9 @@
       <c r="S126" s="53"/>
     </row>
     <row r="127" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A127" s="27"/>
+      <c r="A127" s="27">
+        <v>125</v>
+      </c>
       <c r="B127" s="64" t="s">
         <v>382</v>
       </c>
@@ -12254,7 +12265,9 @@
       <c r="S127" s="53"/>
     </row>
     <row r="128" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A128" s="27"/>
+      <c r="A128" s="27">
+        <v>126</v>
+      </c>
       <c r="B128" s="64" t="s">
         <v>385</v>
       </c>
@@ -12285,7 +12298,9 @@
       <c r="S128" s="53"/>
     </row>
     <row r="129" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A129" s="27"/>
+      <c r="A129" s="27">
+        <v>127</v>
+      </c>
       <c r="B129" s="64" t="s">
         <v>385</v>
       </c>
@@ -12316,7 +12331,9 @@
       <c r="S129" s="53"/>
     </row>
     <row r="130" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A130" s="27"/>
+      <c r="A130" s="27">
+        <v>128</v>
+      </c>
       <c r="B130" s="64" t="s">
         <v>388</v>
       </c>
@@ -12347,7 +12364,9 @@
       <c r="S130" s="53"/>
     </row>
     <row r="131" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A131" s="27"/>
+      <c r="A131" s="27">
+        <v>129</v>
+      </c>
       <c r="B131" s="64" t="s">
         <v>388</v>
       </c>
@@ -12378,7 +12397,9 @@
       <c r="S131" s="53"/>
     </row>
     <row r="132" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A132" s="27"/>
+      <c r="A132" s="27">
+        <v>130</v>
+      </c>
       <c r="B132" s="64" t="s">
         <v>391</v>
       </c>
@@ -12409,7 +12430,9 @@
       <c r="S132" s="53"/>
     </row>
     <row r="133" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A133" s="27"/>
+      <c r="A133" s="27">
+        <v>131</v>
+      </c>
       <c r="B133" s="64" t="s">
         <v>391</v>
       </c>
@@ -12440,7 +12463,9 @@
       <c r="S133" s="53"/>
     </row>
     <row r="134" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A134" s="27"/>
+      <c r="A134" s="27">
+        <v>132</v>
+      </c>
       <c r="B134" s="64" t="s">
         <v>200</v>
       </c>
@@ -12471,7 +12496,9 @@
       <c r="S134" s="53"/>
     </row>
     <row r="135" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A135" s="27"/>
+      <c r="A135" s="27">
+        <v>133</v>
+      </c>
       <c r="B135" s="64" t="s">
         <v>200</v>
       </c>
@@ -12502,7 +12529,9 @@
       <c r="S135" s="53"/>
     </row>
     <row r="136" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A136" s="27"/>
+      <c r="A136" s="27">
+        <v>134</v>
+      </c>
       <c r="B136" s="64" t="s">
         <v>396</v>
       </c>
@@ -12533,7 +12562,9 @@
       <c r="S136" s="53"/>
     </row>
     <row r="137" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A137" s="27"/>
+      <c r="A137" s="27">
+        <v>135</v>
+      </c>
       <c r="B137" s="64" t="s">
         <v>398</v>
       </c>
@@ -12564,7 +12595,9 @@
       <c r="S137" s="53"/>
     </row>
     <row r="138" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A138" s="27"/>
+      <c r="A138" s="27">
+        <v>136</v>
+      </c>
       <c r="B138" s="64" t="s">
         <v>399</v>
       </c>
@@ -12595,7 +12628,9 @@
       <c r="S138" s="53"/>
     </row>
     <row r="139" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A139" s="27"/>
+      <c r="A139" s="27">
+        <v>137</v>
+      </c>
       <c r="B139" s="64" t="s">
         <v>15</v>
       </c>
@@ -12626,7 +12661,9 @@
       <c r="S139" s="53"/>
     </row>
     <row r="140" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A140" s="27"/>
+      <c r="A140" s="27">
+        <v>138</v>
+      </c>
       <c r="B140" s="64" t="s">
         <v>15</v>
       </c>
@@ -12657,7 +12694,9 @@
       <c r="S140" s="53"/>
     </row>
     <row r="141" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A141" s="27"/>
+      <c r="A141" s="27">
+        <v>139</v>
+      </c>
       <c r="B141" s="64" t="s">
         <v>404</v>
       </c>
@@ -12688,7 +12727,9 @@
       <c r="S141" s="53"/>
     </row>
     <row r="142" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A142" s="27"/>
+      <c r="A142" s="27">
+        <v>140</v>
+      </c>
       <c r="B142" s="64" t="s">
         <v>106</v>
       </c>
@@ -12719,7 +12760,9 @@
       <c r="S142" s="53"/>
     </row>
     <row r="143" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A143" s="27"/>
+      <c r="A143" s="27">
+        <v>141</v>
+      </c>
       <c r="B143" s="64" t="s">
         <v>106</v>
       </c>
@@ -12750,7 +12793,9 @@
       <c r="S143" s="53"/>
     </row>
     <row r="144" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A144" s="27"/>
+      <c r="A144" s="27">
+        <v>142</v>
+      </c>
       <c r="B144" s="64" t="s">
         <v>181</v>
       </c>
@@ -12781,7 +12826,9 @@
       <c r="S144" s="53"/>
     </row>
     <row r="145" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A145" s="27"/>
+      <c r="A145" s="27">
+        <v>143</v>
+      </c>
       <c r="B145" s="64" t="s">
         <v>108</v>
       </c>
@@ -12812,7 +12859,9 @@
       <c r="S145" s="53"/>
     </row>
     <row r="146" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A146" s="27"/>
+      <c r="A146" s="27">
+        <v>144</v>
+      </c>
       <c r="B146" s="64" t="s">
         <v>108</v>
       </c>
@@ -12843,7 +12892,9 @@
       <c r="S146" s="53"/>
     </row>
     <row r="147" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A147" s="27"/>
+      <c r="A147" s="27">
+        <v>145</v>
+      </c>
       <c r="B147" s="64" t="s">
         <v>110</v>
       </c>
@@ -12874,7 +12925,9 @@
       <c r="S147" s="53"/>
     </row>
     <row r="148" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A148" s="27"/>
+      <c r="A148" s="27">
+        <v>146</v>
+      </c>
       <c r="B148" s="64" t="s">
         <v>413</v>
       </c>
@@ -12905,7 +12958,9 @@
       <c r="S148" s="53"/>
     </row>
     <row r="149" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A149" s="27"/>
+      <c r="A149" s="27">
+        <v>147</v>
+      </c>
       <c r="B149" s="64" t="s">
         <v>413</v>
       </c>
@@ -12936,7 +12991,9 @@
       <c r="S149" s="53"/>
     </row>
     <row r="150" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A150" s="27"/>
+      <c r="A150" s="27">
+        <v>148</v>
+      </c>
       <c r="B150" s="64" t="s">
         <v>416</v>
       </c>
@@ -12967,7 +13024,9 @@
       <c r="S150" s="53"/>
     </row>
     <row r="151" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A151" s="27"/>
+      <c r="A151" s="27">
+        <v>149</v>
+      </c>
       <c r="B151" s="64" t="s">
         <v>112</v>
       </c>
@@ -12998,7 +13057,9 @@
       <c r="S151" s="53"/>
     </row>
     <row r="152" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A152" s="27"/>
+      <c r="A152" s="27">
+        <v>150</v>
+      </c>
       <c r="B152" s="64" t="s">
         <v>112</v>
       </c>
@@ -13029,7 +13090,9 @@
       <c r="S152" s="53"/>
     </row>
     <row r="153" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A153" s="27"/>
+      <c r="A153" s="27">
+        <v>151</v>
+      </c>
       <c r="B153" s="64" t="s">
         <v>54</v>
       </c>
@@ -13060,7 +13123,9 @@
       <c r="S153" s="53"/>
     </row>
     <row r="154" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A154" s="27"/>
+      <c r="A154" s="27">
+        <v>152</v>
+      </c>
       <c r="B154" s="64" t="s">
         <v>227</v>
       </c>
@@ -13091,7 +13156,9 @@
       <c r="S154" s="53"/>
     </row>
     <row r="155" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A155" s="27"/>
+      <c r="A155" s="27">
+        <v>153</v>
+      </c>
       <c r="B155" s="64" t="s">
         <v>227</v>
       </c>
@@ -13122,7 +13189,9 @@
       <c r="S155" s="53"/>
     </row>
     <row r="156" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A156" s="27"/>
+      <c r="A156" s="27">
+        <v>154</v>
+      </c>
       <c r="B156" s="64" t="s">
         <v>422</v>
       </c>
@@ -13153,7 +13222,9 @@
       <c r="S156" s="53"/>
     </row>
     <row r="157" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A157" s="27"/>
+      <c r="A157" s="27">
+        <v>155</v>
+      </c>
       <c r="B157" s="64" t="s">
         <v>424</v>
       </c>
@@ -13184,7 +13255,9 @@
       <c r="S157" s="53"/>
     </row>
     <row r="158" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A158" s="27"/>
+      <c r="A158" s="27">
+        <v>156</v>
+      </c>
       <c r="B158" s="64" t="s">
         <v>424</v>
       </c>
@@ -13215,7 +13288,9 @@
       <c r="S158" s="53"/>
     </row>
     <row r="159" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A159" s="27"/>
+      <c r="A159" s="27">
+        <v>157</v>
+      </c>
       <c r="B159" s="64" t="s">
         <v>10</v>
       </c>
@@ -13246,7 +13321,9 @@
       <c r="S159" s="53"/>
     </row>
     <row r="160" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A160" s="27"/>
+      <c r="A160" s="27">
+        <v>158</v>
+      </c>
       <c r="B160" s="64" t="s">
         <v>10</v>
       </c>
@@ -13277,7 +13354,9 @@
       <c r="S160" s="53"/>
     </row>
     <row r="161" spans="1:19" s="30" customFormat="1" ht="32">
-      <c r="A161" s="27"/>
+      <c r="A161" s="27">
+        <v>159</v>
+      </c>
       <c r="B161" s="64" t="s">
         <v>428</v>
       </c>
@@ -13308,7 +13387,9 @@
       <c r="S161" s="53"/>
     </row>
     <row r="162" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A162" s="27"/>
+      <c r="A162" s="27">
+        <v>160</v>
+      </c>
       <c r="B162" s="64" t="s">
         <v>398</v>
       </c>
@@ -13339,7 +13420,9 @@
       <c r="S162" s="53"/>
     </row>
     <row r="163" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A163" s="27"/>
+      <c r="A163" s="27">
+        <v>161</v>
+      </c>
       <c r="B163" s="64" t="s">
         <v>431</v>
       </c>
@@ -13370,7 +13453,9 @@
       <c r="S163" s="53"/>
     </row>
     <row r="164" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A164" s="27"/>
+      <c r="A164" s="27">
+        <v>162</v>
+      </c>
       <c r="B164" s="64" t="s">
         <v>431</v>
       </c>
@@ -13401,7 +13486,9 @@
       <c r="S164" s="53"/>
     </row>
     <row r="165" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A165" s="27"/>
+      <c r="A165" s="27">
+        <v>163</v>
+      </c>
       <c r="B165" s="64" t="s">
         <v>433</v>
       </c>
@@ -13432,7 +13519,9 @@
       <c r="S165" s="53"/>
     </row>
     <row r="166" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A166" s="27"/>
+      <c r="A166" s="27">
+        <v>164</v>
+      </c>
       <c r="B166" s="64" t="s">
         <v>433</v>
       </c>
@@ -13463,7 +13552,9 @@
       <c r="S166" s="53"/>
     </row>
     <row r="167" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A167" s="27"/>
+      <c r="A167" s="27">
+        <v>165</v>
+      </c>
       <c r="B167" s="64" t="s">
         <v>436</v>
       </c>
@@ -13494,7 +13585,9 @@
       <c r="S167" s="53"/>
     </row>
     <row r="168" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A168" s="27"/>
+      <c r="A168" s="27">
+        <v>166</v>
+      </c>
       <c r="B168" s="64" t="s">
         <v>115</v>
       </c>
@@ -13525,7 +13618,9 @@
       <c r="S168" s="53"/>
     </row>
     <row r="169" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A169" s="27"/>
+      <c r="A169" s="27">
+        <v>167</v>
+      </c>
       <c r="B169" s="64" t="s">
         <v>115</v>
       </c>
@@ -13556,7 +13651,9 @@
       <c r="S169" s="53"/>
     </row>
     <row r="170" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A170" s="27"/>
+      <c r="A170" s="27">
+        <v>168</v>
+      </c>
       <c r="B170" s="80" t="s">
         <v>110</v>
       </c>
@@ -13587,7 +13684,9 @@
       <c r="S170" s="53"/>
     </row>
     <row r="171" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A171" s="27"/>
+      <c r="A171" s="27">
+        <v>169</v>
+      </c>
       <c r="B171" s="82" t="s">
         <v>443</v>
       </c>
@@ -13618,7 +13717,9 @@
       <c r="S171" s="53"/>
     </row>
     <row r="172" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A172" s="27"/>
+      <c r="A172" s="27">
+        <v>170</v>
+      </c>
       <c r="B172" s="82" t="s">
         <v>433</v>
       </c>
@@ -13649,7 +13750,9 @@
       <c r="S172" s="53"/>
     </row>
     <row r="173" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A173" s="27"/>
+      <c r="A173" s="27">
+        <v>171</v>
+      </c>
       <c r="B173" s="82" t="s">
         <v>436</v>
       </c>
@@ -13680,7 +13783,9 @@
       <c r="S173" s="53"/>
     </row>
     <row r="174" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A174" s="27"/>
+      <c r="A174" s="27">
+        <v>172</v>
+      </c>
       <c r="B174" s="82" t="s">
         <v>110</v>
       </c>
@@ -13711,7 +13816,9 @@
       <c r="S174" s="53"/>
     </row>
     <row r="175" spans="1:19" s="30" customFormat="1" ht="21">
-      <c r="A175" s="27"/>
+      <c r="A175" s="27">
+        <v>173</v>
+      </c>
       <c r="B175" s="82" t="s">
         <v>115</v>
       </c>
@@ -13743,10 +13850,16 @@
     </row>
     <row r="176" spans="1:19" s="30" customFormat="1" ht="21">
       <c r="A176" s="27"/>
-      <c r="B176" s="81"/>
-      <c r="C176" s="15"/>
+      <c r="B176" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>454</v>
+      </c>
       <c r="D176" s="15"/>
-      <c r="E176" s="15"/>
+      <c r="E176" s="15">
+        <v>300</v>
+      </c>
       <c r="F176" s="28"/>
       <c r="G176" s="15"/>
       <c r="H176" s="15"/>

--- a/Infraestructura/Matriz_Infraestructuras_2019v2.xlsx
+++ b/Infraestructura/Matriz_Infraestructuras_2019v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmadrid/Documents/GitHub/Dotaciones2019/Infraestructura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602EB742-96B8-2646-B3CC-ACD0C539AACA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F001986A-EA9E-E841-BDAC-8C41182ADFB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1662,7 +1662,7 @@
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1758,14 +1758,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1855,6 +1849,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1987,7 +1987,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2165,6 +2165,33 @@
     <xf numFmtId="17" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2204,31 +2231,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5431,11 +5434,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S244"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K230" sqref="K230"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -5463,13 +5467,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="23" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="76" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
       <c r="M1" s="24"/>
@@ -5536,7 +5540,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="30" customFormat="1" ht="149.25" customHeight="1">
+    <row r="3" spans="1:19" s="30" customFormat="1" ht="149.25" hidden="1" customHeight="1">
       <c r="A3" s="27">
         <v>1</v>
       </c>
@@ -5585,7 +5589,7 @@
       <c r="P3" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="Q3" s="81" t="s">
+      <c r="Q3" s="68" t="s">
         <v>352</v>
       </c>
       <c r="R3" s="16" t="s">
@@ -5595,7 +5599,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="30" customFormat="1" ht="149.25" customHeight="1">
+    <row r="4" spans="1:19" s="30" customFormat="1" ht="149.25" hidden="1" customHeight="1">
       <c r="A4" s="27">
         <v>2</v>
       </c>
@@ -5624,13 +5628,13 @@
       <c r="N4" s="51"/>
       <c r="O4" s="50"/>
       <c r="P4" s="63"/>
-      <c r="Q4" s="81"/>
+      <c r="Q4" s="68"/>
       <c r="R4" s="16"/>
       <c r="S4" s="53" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="30" customFormat="1" ht="176">
+    <row r="5" spans="1:19" s="30" customFormat="1" ht="176" hidden="1">
       <c r="A5" s="27">
         <v>3</v>
       </c>
@@ -5676,10 +5680,10 @@
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
-      <c r="P5" s="83" t="s">
+      <c r="P5" s="70" t="s">
         <v>342</v>
       </c>
-      <c r="Q5" s="84" t="s">
+      <c r="Q5" s="71" t="s">
         <v>341</v>
       </c>
       <c r="R5" s="16" t="s">
@@ -5687,7 +5691,7 @@
       </c>
       <c r="S5" s="53"/>
     </row>
-    <row r="6" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="6" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A6" s="27">
         <v>4</v>
       </c>
@@ -5733,10 +5737,10 @@
         <f t="shared" si="0"/>
         <v>151437600</v>
       </c>
-      <c r="P6" s="83" t="s">
+      <c r="P6" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q6" s="84" t="s">
+      <c r="Q6" s="71" t="s">
         <v>341</v>
       </c>
       <c r="R6" s="16" t="s">
@@ -5744,7 +5748,7 @@
       </c>
       <c r="S6" s="53"/>
     </row>
-    <row r="7" spans="1:19" s="30" customFormat="1" ht="128">
+    <row r="7" spans="1:19" s="30" customFormat="1" ht="128" hidden="1">
       <c r="A7" s="27">
         <v>5</v>
       </c>
@@ -5790,10 +5794,10 @@
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
-      <c r="P7" s="83" t="s">
+      <c r="P7" s="70" t="s">
         <v>342</v>
       </c>
-      <c r="Q7" s="84" t="s">
+      <c r="Q7" s="71" t="s">
         <v>352</v>
       </c>
       <c r="R7" s="16" t="s">
@@ -5801,7 +5805,7 @@
       </c>
       <c r="S7" s="53"/>
     </row>
-    <row r="8" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="8" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A8" s="27">
         <v>6</v>
       </c>
@@ -5847,10 +5851,10 @@
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
-      <c r="P8" s="83" t="s">
+      <c r="P8" s="70" t="s">
         <v>342</v>
       </c>
-      <c r="Q8" s="84" t="s">
+      <c r="Q8" s="71" t="s">
         <v>341</v>
       </c>
       <c r="R8" s="16" t="s">
@@ -5858,7 +5862,7 @@
       </c>
       <c r="S8" s="53"/>
     </row>
-    <row r="9" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="9" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A9" s="27">
         <v>7</v>
       </c>
@@ -5904,16 +5908,16 @@
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
-      <c r="P9" s="83" t="s">
+      <c r="P9" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q9" s="83" t="s">
+      <c r="Q9" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R9" s="16"/>
       <c r="S9" s="53"/>
     </row>
-    <row r="10" spans="1:19" s="30" customFormat="1" ht="54.75" customHeight="1">
+    <row r="10" spans="1:19" s="30" customFormat="1" ht="54.75" hidden="1" customHeight="1">
       <c r="A10" s="27">
         <v>8</v>
       </c>
@@ -5970,7 +5974,7 @@
       </c>
       <c r="S10" s="53"/>
     </row>
-    <row r="11" spans="1:19" s="30" customFormat="1" ht="160">
+    <row r="11" spans="1:19" s="30" customFormat="1" ht="160" hidden="1">
       <c r="A11" s="27">
         <v>9</v>
       </c>
@@ -6027,7 +6031,7 @@
       </c>
       <c r="S11" s="53"/>
     </row>
-    <row r="12" spans="1:19" s="30" customFormat="1" ht="36" customHeight="1">
+    <row r="12" spans="1:19" s="30" customFormat="1" ht="36" hidden="1" customHeight="1">
       <c r="A12" s="27">
         <v>10</v>
       </c>
@@ -6084,7 +6088,7 @@
       </c>
       <c r="S12" s="53"/>
     </row>
-    <row r="13" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="13" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A13" s="27">
         <v>11</v>
       </c>
@@ -6130,12 +6134,12 @@
         <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
       <c r="R13" s="16"/>
       <c r="S13" s="53"/>
     </row>
-    <row r="14" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="14" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A14" s="27">
         <v>12</v>
       </c>
@@ -6183,12 +6187,12 @@
         <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
       <c r="R14" s="16"/>
       <c r="S14" s="53"/>
     </row>
-    <row r="15" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="15" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A15" s="27">
         <v>13</v>
       </c>
@@ -6238,7 +6242,7 @@
       <c r="P15" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="Q15" s="86" t="s">
+      <c r="Q15" s="73" t="s">
         <v>334</v>
       </c>
       <c r="R15" s="38" t="s">
@@ -6246,7 +6250,7 @@
       </c>
       <c r="S15" s="54"/>
     </row>
-    <row r="16" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="16" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A16" s="27">
         <v>14</v>
       </c>
@@ -6295,7 +6299,7 @@
       <c r="P16" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="Q16" s="86" t="s">
+      <c r="Q16" s="73" t="s">
         <v>334</v>
       </c>
       <c r="R16" s="38" t="s">
@@ -6303,7 +6307,7 @@
       </c>
       <c r="S16" s="54"/>
     </row>
-    <row r="17" spans="1:19" s="30" customFormat="1" ht="64">
+    <row r="17" spans="1:19" s="30" customFormat="1" ht="64" hidden="1">
       <c r="A17" s="27">
         <v>15</v>
       </c>
@@ -6351,16 +6355,16 @@
         <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
-      <c r="P17" s="85" t="s">
+      <c r="P17" s="72" t="s">
         <v>349</v>
       </c>
-      <c r="Q17" s="85"/>
+      <c r="Q17" s="72"/>
       <c r="R17" s="16" t="s">
         <v>337</v>
       </c>
       <c r="S17" s="53"/>
     </row>
-    <row r="18" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="18" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A18" s="27">
         <v>16</v>
       </c>
@@ -6408,12 +6412,12 @@
         <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
       <c r="R18" s="16"/>
       <c r="S18" s="53"/>
     </row>
-    <row r="19" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="19" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A19" s="27">
         <v>17</v>
       </c>
@@ -6459,12 +6463,12 @@
         <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
       <c r="R19" s="16"/>
       <c r="S19" s="53"/>
     </row>
-    <row r="20" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="20" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A20" s="27">
         <v>18</v>
       </c>
@@ -6512,12 +6516,12 @@
         <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
       <c r="R20" s="16"/>
       <c r="S20" s="53"/>
     </row>
-    <row r="21" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="21" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A21" s="27">
         <v>19</v>
       </c>
@@ -6565,12 +6569,12 @@
         <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
       <c r="R21" s="16"/>
       <c r="S21" s="53"/>
     </row>
-    <row r="22" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="22" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A22" s="27">
         <v>20</v>
       </c>
@@ -6616,12 +6620,12 @@
         <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
       <c r="R22" s="16"/>
       <c r="S22" s="53"/>
     </row>
-    <row r="23" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="23" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A23" s="27">
         <v>21</v>
       </c>
@@ -6669,10 +6673,10 @@
         <f t="shared" si="0"/>
         <v>134866750</v>
       </c>
-      <c r="P23" s="85" t="s">
+      <c r="P23" s="72" t="s">
         <v>349</v>
       </c>
-      <c r="Q23" s="85" t="s">
+      <c r="Q23" s="72" t="s">
         <v>219</v>
       </c>
       <c r="R23" s="34" t="s">
@@ -6680,7 +6684,7 @@
       </c>
       <c r="S23" s="55"/>
     </row>
-    <row r="24" spans="1:19" s="30" customFormat="1" ht="118.5" customHeight="1">
+    <row r="24" spans="1:19" s="30" customFormat="1" ht="118.5" hidden="1" customHeight="1">
       <c r="A24" s="27">
         <v>22</v>
       </c>
@@ -6729,7 +6733,7 @@
       <c r="P24" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="Q24" s="86" t="s">
+      <c r="Q24" s="73" t="s">
         <v>334</v>
       </c>
       <c r="R24" s="16" t="s">
@@ -6737,7 +6741,7 @@
       </c>
       <c r="S24" s="53"/>
     </row>
-    <row r="25" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="25" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A25" s="27">
         <v>23</v>
       </c>
@@ -6783,16 +6787,16 @@
         <f t="shared" si="0"/>
         <v>147643600</v>
       </c>
-      <c r="P25" s="83" t="s">
+      <c r="P25" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q25" s="83" t="s">
+      <c r="Q25" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R25" s="16"/>
       <c r="S25" s="53"/>
     </row>
-    <row r="26" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="26" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A26" s="27">
         <v>24</v>
       </c>
@@ -6835,16 +6839,16 @@
         <f t="shared" si="0"/>
         <v>274480650</v>
       </c>
-      <c r="P26" s="83" t="s">
+      <c r="P26" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q26" s="83" t="s">
+      <c r="Q26" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R26" s="16"/>
       <c r="S26" s="53"/>
     </row>
-    <row r="27" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="27" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A27" s="27">
         <v>25</v>
       </c>
@@ -6887,16 +6891,16 @@
         <f t="shared" si="0"/>
         <v>274480650</v>
       </c>
-      <c r="P27" s="83" t="s">
+      <c r="P27" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q27" s="83" t="s">
+      <c r="Q27" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R27" s="16"/>
       <c r="S27" s="53"/>
     </row>
-    <row r="28" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="28" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A28" s="27">
         <v>26</v>
       </c>
@@ -6939,16 +6943,16 @@
         <f t="shared" si="0"/>
         <v>283945500</v>
       </c>
-      <c r="P28" s="83" t="s">
+      <c r="P28" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q28" s="83" t="s">
+      <c r="Q28" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R28" s="16"/>
       <c r="S28" s="53"/>
     </row>
-    <row r="29" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="29" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A29" s="27">
         <v>27</v>
       </c>
@@ -6991,16 +6995,16 @@
         <f t="shared" si="0"/>
         <v>170367300</v>
       </c>
-      <c r="P29" s="83" t="s">
+      <c r="P29" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q29" s="83" t="s">
+      <c r="Q29" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R29" s="16"/>
       <c r="S29" s="53"/>
     </row>
-    <row r="30" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="30" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A30" s="27">
         <v>28</v>
       </c>
@@ -7043,16 +7047,16 @@
         <f t="shared" si="0"/>
         <v>266908770</v>
       </c>
-      <c r="P30" s="83" t="s">
+      <c r="P30" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q30" s="83" t="s">
+      <c r="Q30" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R30" s="16"/>
       <c r="S30" s="53"/>
     </row>
-    <row r="31" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="31" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A31" s="27">
         <v>29</v>
       </c>
@@ -7095,16 +7099,16 @@
         <f t="shared" si="0"/>
         <v>170367300</v>
       </c>
-      <c r="P31" s="83" t="s">
+      <c r="P31" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q31" s="83" t="s">
+      <c r="Q31" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R31" s="16"/>
       <c r="S31" s="53"/>
     </row>
-    <row r="32" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="32" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A32" s="27">
         <v>30</v>
       </c>
@@ -7147,16 +7151,16 @@
         <f t="shared" si="0"/>
         <v>274480650</v>
       </c>
-      <c r="P32" s="83" t="s">
+      <c r="P32" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q32" s="83" t="s">
+      <c r="Q32" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R32" s="16"/>
       <c r="S32" s="53"/>
     </row>
-    <row r="33" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="33" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A33" s="27">
         <v>31</v>
       </c>
@@ -7199,16 +7203,16 @@
         <f t="shared" si="0"/>
         <v>212947500</v>
       </c>
-      <c r="P33" s="83" t="s">
+      <c r="P33" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q33" s="83" t="s">
+      <c r="Q33" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R33" s="16"/>
       <c r="S33" s="53"/>
     </row>
-    <row r="34" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="34" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A34" s="27">
         <v>32</v>
       </c>
@@ -7251,16 +7255,16 @@
         <f t="shared" si="0"/>
         <v>274480650</v>
       </c>
-      <c r="P34" s="83" t="s">
+      <c r="P34" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q34" s="83" t="s">
+      <c r="Q34" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R34" s="16"/>
       <c r="S34" s="53"/>
     </row>
-    <row r="35" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="35" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A35" s="27">
         <v>33</v>
       </c>
@@ -7303,16 +7307,16 @@
         <f t="shared" si="0"/>
         <v>274480650</v>
       </c>
-      <c r="P35" s="83" t="s">
+      <c r="P35" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q35" s="83" t="s">
+      <c r="Q35" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R35" s="16"/>
       <c r="S35" s="53"/>
     </row>
-    <row r="36" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="36" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A36" s="27">
         <v>34</v>
       </c>
@@ -7358,10 +7362,10 @@
         <f t="shared" ref="O36:O67" si="4">N36*E36</f>
         <v>283945500</v>
       </c>
-      <c r="P36" s="83" t="s">
+      <c r="P36" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q36" s="83" t="s">
+      <c r="Q36" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R36" s="17" t="s">
@@ -7369,7 +7373,7 @@
       </c>
       <c r="S36" s="56"/>
     </row>
-    <row r="37" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="37" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A37" s="27">
         <v>35</v>
       </c>
@@ -7414,10 +7418,10 @@
         <f t="shared" si="4"/>
         <v>151437600</v>
       </c>
-      <c r="P37" s="83" t="s">
+      <c r="P37" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q37" s="83" t="s">
+      <c r="Q37" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R37" s="16" t="s">
@@ -7425,7 +7429,7 @@
       </c>
       <c r="S37" s="53"/>
     </row>
-    <row r="38" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="38" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A38" s="27">
         <v>36</v>
       </c>
@@ -7470,10 +7474,10 @@
         <f t="shared" si="4"/>
         <v>283945500</v>
       </c>
-      <c r="P38" s="83" t="s">
+      <c r="P38" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q38" s="83" t="s">
+      <c r="Q38" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R38" s="16" t="s">
@@ -7481,7 +7485,7 @@
       </c>
       <c r="S38" s="53"/>
     </row>
-    <row r="39" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="39" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A39" s="27">
         <v>37</v>
       </c>
@@ -7526,10 +7530,10 @@
         <f t="shared" si="4"/>
         <v>283945500</v>
       </c>
-      <c r="P39" s="83" t="s">
+      <c r="P39" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q39" s="83" t="s">
+      <c r="Q39" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R39" s="16" t="s">
@@ -7537,7 +7541,7 @@
       </c>
       <c r="S39" s="53"/>
     </row>
-    <row r="40" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="40" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A40" s="27">
         <v>38</v>
       </c>
@@ -7582,10 +7586,10 @@
         <f t="shared" si="4"/>
         <v>283945500</v>
       </c>
-      <c r="P40" s="83" t="s">
+      <c r="P40" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q40" s="83" t="s">
+      <c r="Q40" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R40" s="16" t="s">
@@ -7593,7 +7597,7 @@
       </c>
       <c r="S40" s="53"/>
     </row>
-    <row r="41" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="41" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A41" s="27">
         <v>39</v>
       </c>
@@ -7639,10 +7643,10 @@
         <f t="shared" si="4"/>
         <v>283945500</v>
       </c>
-      <c r="P41" s="83" t="s">
+      <c r="P41" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q41" s="83" t="s">
+      <c r="Q41" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R41" s="16" t="s">
@@ -7650,7 +7654,7 @@
       </c>
       <c r="S41" s="53"/>
     </row>
-    <row r="42" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="42" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A42" s="27">
         <v>40</v>
       </c>
@@ -7695,10 +7699,10 @@
         <f t="shared" si="4"/>
         <v>283945500</v>
       </c>
-      <c r="P42" s="83" t="s">
+      <c r="P42" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q42" s="83" t="s">
+      <c r="Q42" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R42" s="16" t="s">
@@ -7706,7 +7710,7 @@
       </c>
       <c r="S42" s="53"/>
     </row>
-    <row r="43" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="43" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A43" s="27">
         <v>41</v>
       </c>
@@ -7751,10 +7755,10 @@
         <f t="shared" si="4"/>
         <v>283945500</v>
       </c>
-      <c r="P43" s="83" t="s">
+      <c r="P43" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q43" s="83" t="s">
+      <c r="Q43" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R43" s="16" t="s">
@@ -7762,7 +7766,7 @@
       </c>
       <c r="S43" s="53"/>
     </row>
-    <row r="44" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="44" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A44" s="27">
         <v>42</v>
       </c>
@@ -7808,10 +7812,10 @@
         <f t="shared" si="4"/>
         <v>283945500</v>
       </c>
-      <c r="P44" s="83" t="s">
+      <c r="P44" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q44" s="83" t="s">
+      <c r="Q44" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R44" s="16" t="s">
@@ -7819,7 +7823,7 @@
       </c>
       <c r="S44" s="53"/>
     </row>
-    <row r="45" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="45" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A45" s="27">
         <v>43</v>
       </c>
@@ -7864,10 +7868,10 @@
         <f t="shared" si="4"/>
         <v>283945500</v>
       </c>
-      <c r="P45" s="83" t="s">
+      <c r="P45" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q45" s="83" t="s">
+      <c r="Q45" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R45" s="16" t="s">
@@ -7875,7 +7879,7 @@
       </c>
       <c r="S45" s="53"/>
     </row>
-    <row r="46" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="46" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A46" s="27">
         <v>44</v>
       </c>
@@ -7921,10 +7925,10 @@
         <f t="shared" si="4"/>
         <v>283945500</v>
       </c>
-      <c r="P46" s="83" t="s">
+      <c r="P46" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q46" s="83" t="s">
+      <c r="Q46" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R46" s="16" t="s">
@@ -7932,7 +7936,7 @@
       </c>
       <c r="S46" s="53"/>
     </row>
-    <row r="47" spans="1:19" s="30" customFormat="1" ht="64">
+    <row r="47" spans="1:19" s="30" customFormat="1" ht="64" hidden="1">
       <c r="A47" s="27">
         <v>45</v>
       </c>
@@ -7977,10 +7981,10 @@
         <f t="shared" si="4"/>
         <v>283945500</v>
       </c>
-      <c r="P47" s="83" t="s">
+      <c r="P47" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q47" s="83" t="s">
+      <c r="Q47" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R47" s="16" t="s">
@@ -7988,7 +7992,7 @@
       </c>
       <c r="S47" s="53"/>
     </row>
-    <row r="48" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="48" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A48" s="27">
         <v>46</v>
       </c>
@@ -8033,10 +8037,10 @@
         <f t="shared" si="4"/>
         <v>283945500</v>
       </c>
-      <c r="P48" s="83" t="s">
+      <c r="P48" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q48" s="83" t="s">
+      <c r="Q48" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R48" s="16" t="s">
@@ -8044,7 +8048,7 @@
       </c>
       <c r="S48" s="53"/>
     </row>
-    <row r="49" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="49" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A49" s="27">
         <v>47</v>
       </c>
@@ -8089,10 +8093,10 @@
         <f t="shared" si="4"/>
         <v>283945500</v>
       </c>
-      <c r="P49" s="83" t="s">
+      <c r="P49" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q49" s="83" t="s">
+      <c r="Q49" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R49" s="16" t="s">
@@ -8100,7 +8104,7 @@
       </c>
       <c r="S49" s="53"/>
     </row>
-    <row r="50" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="50" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A50" s="27">
         <v>48</v>
       </c>
@@ -8139,10 +8143,10 @@
         <f t="shared" si="4"/>
         <v>283945500</v>
       </c>
-      <c r="P50" s="83" t="s">
+      <c r="P50" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q50" s="83" t="s">
+      <c r="Q50" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R50" s="16" t="s">
@@ -8150,7 +8154,7 @@
       </c>
       <c r="S50" s="53"/>
     </row>
-    <row r="51" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="51" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A51" s="27">
         <v>49</v>
       </c>
@@ -8196,10 +8200,10 @@
         <f t="shared" si="4"/>
         <v>134866750</v>
       </c>
-      <c r="P51" s="83" t="s">
+      <c r="P51" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q51" s="83" t="s">
+      <c r="Q51" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R51" s="16" t="s">
@@ -8207,7 +8211,7 @@
       </c>
       <c r="S51" s="53"/>
     </row>
-    <row r="52" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="52" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A52" s="27">
         <v>50</v>
       </c>
@@ -8252,10 +8256,10 @@
         <f t="shared" si="4"/>
         <v>134866750</v>
       </c>
-      <c r="P52" s="83" t="s">
+      <c r="P52" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q52" s="83" t="s">
+      <c r="Q52" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R52" s="16" t="s">
@@ -8263,7 +8267,7 @@
       </c>
       <c r="S52" s="53"/>
     </row>
-    <row r="53" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="53" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A53" s="27">
         <v>51</v>
       </c>
@@ -8308,10 +8312,10 @@
         <f t="shared" si="4"/>
         <v>151437600</v>
       </c>
-      <c r="P53" s="83" t="s">
+      <c r="P53" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q53" s="83" t="s">
+      <c r="Q53" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R53" s="16" t="s">
@@ -8319,7 +8323,7 @@
       </c>
       <c r="S53" s="53"/>
     </row>
-    <row r="54" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="54" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A54" s="27">
         <v>52</v>
       </c>
@@ -8364,10 +8368,10 @@
         <f t="shared" si="4"/>
         <v>151437600</v>
       </c>
-      <c r="P54" s="83" t="s">
+      <c r="P54" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q54" s="83" t="s">
+      <c r="Q54" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R54" s="16" t="s">
@@ -8375,7 +8379,7 @@
       </c>
       <c r="S54" s="53"/>
     </row>
-    <row r="55" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="55" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A55" s="27">
         <v>53</v>
       </c>
@@ -8420,10 +8424,10 @@
         <f t="shared" si="4"/>
         <v>151437600</v>
       </c>
-      <c r="P55" s="83" t="s">
+      <c r="P55" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q55" s="83" t="s">
+      <c r="Q55" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R55" s="16" t="s">
@@ -8431,7 +8435,7 @@
       </c>
       <c r="S55" s="53"/>
     </row>
-    <row r="56" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="56" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A56" s="27">
         <v>54</v>
       </c>
@@ -8476,10 +8480,10 @@
         <f t="shared" si="4"/>
         <v>151437600</v>
       </c>
-      <c r="P56" s="83" t="s">
+      <c r="P56" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q56" s="83" t="s">
+      <c r="Q56" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R56" s="16" t="s">
@@ -8487,7 +8491,7 @@
       </c>
       <c r="S56" s="53"/>
     </row>
-    <row r="57" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="57" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A57" s="27">
         <v>55</v>
       </c>
@@ -8532,10 +8536,10 @@
         <f t="shared" si="4"/>
         <v>283945500</v>
       </c>
-      <c r="P57" s="83" t="s">
+      <c r="P57" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q57" s="83" t="s">
+      <c r="Q57" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R57" s="16" t="s">
@@ -8543,7 +8547,7 @@
       </c>
       <c r="S57" s="53"/>
     </row>
-    <row r="58" spans="1:19" s="30" customFormat="1" ht="96">
+    <row r="58" spans="1:19" s="30" customFormat="1" ht="96" hidden="1">
       <c r="A58" s="27">
         <v>56</v>
       </c>
@@ -8587,10 +8591,10 @@
         <f t="shared" si="4"/>
         <v>151437600</v>
       </c>
-      <c r="P58" s="86" t="s">
+      <c r="P58" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="Q58" s="86" t="s">
+      <c r="Q58" s="73" t="s">
         <v>97</v>
       </c>
       <c r="R58" s="16" t="s">
@@ -8598,7 +8602,7 @@
       </c>
       <c r="S58" s="53"/>
     </row>
-    <row r="59" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="59" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A59" s="27">
         <v>57</v>
       </c>
@@ -8644,7 +8648,7 @@
       <c r="P59" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="Q59" s="86" t="s">
+      <c r="Q59" s="73" t="s">
         <v>357</v>
       </c>
       <c r="R59" s="16" t="s">
@@ -8652,7 +8656,7 @@
       </c>
       <c r="S59" s="53"/>
     </row>
-    <row r="60" spans="1:19" s="30" customFormat="1" ht="144">
+    <row r="60" spans="1:19" s="30" customFormat="1" ht="144" hidden="1">
       <c r="A60" s="27">
         <v>58</v>
       </c>
@@ -8695,10 +8699,10 @@
         <f t="shared" si="4"/>
         <v>151437600</v>
       </c>
-      <c r="P60" s="86" t="s">
+      <c r="P60" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="Q60" s="86" t="s">
+      <c r="Q60" s="73" t="s">
         <v>97</v>
       </c>
       <c r="R60" s="16" t="s">
@@ -8706,7 +8710,7 @@
       </c>
       <c r="S60" s="53"/>
     </row>
-    <row r="61" spans="1:19" s="30" customFormat="1" ht="64">
+    <row r="61" spans="1:19" s="30" customFormat="1" ht="64" hidden="1">
       <c r="A61" s="27">
         <v>59</v>
       </c>
@@ -8752,7 +8756,7 @@
       <c r="P61" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="Q61" s="86" t="s">
+      <c r="Q61" s="73" t="s">
         <v>97</v>
       </c>
       <c r="R61" s="16" t="s">
@@ -8760,7 +8764,7 @@
       </c>
       <c r="S61" s="53"/>
     </row>
-    <row r="62" spans="1:19" s="30" customFormat="1" ht="96">
+    <row r="62" spans="1:19" s="30" customFormat="1" ht="96" hidden="1">
       <c r="A62" s="27">
         <v>60</v>
       </c>
@@ -8803,10 +8807,10 @@
         <f t="shared" si="4"/>
         <v>141965000</v>
       </c>
-      <c r="P62" s="86" t="s">
+      <c r="P62" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="Q62" s="86" t="s">
+      <c r="Q62" s="73" t="s">
         <v>97</v>
       </c>
       <c r="R62" s="16" t="s">
@@ -8814,7 +8818,7 @@
       </c>
       <c r="S62" s="53"/>
     </row>
-    <row r="63" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="63" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A63" s="27">
         <v>61</v>
       </c>
@@ -8860,10 +8864,10 @@
         <f t="shared" si="4"/>
         <v>151437600</v>
       </c>
-      <c r="P63" s="86" t="s">
+      <c r="P63" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="Q63" s="87" t="s">
+      <c r="Q63" s="74" t="s">
         <v>327</v>
       </c>
       <c r="R63" s="16" t="s">
@@ -8871,7 +8875,7 @@
       </c>
       <c r="S63" s="53"/>
     </row>
-    <row r="64" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="64" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A64" s="27">
         <v>62</v>
       </c>
@@ -8918,10 +8922,10 @@
         <f t="shared" si="4"/>
         <v>92277250</v>
       </c>
-      <c r="P64" s="86" t="s">
+      <c r="P64" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="Q64" s="88" t="s">
+      <c r="Q64" s="75" t="s">
         <v>327</v>
       </c>
       <c r="R64" s="16" t="s">
@@ -8929,7 +8933,7 @@
       </c>
       <c r="S64" s="53"/>
     </row>
-    <row r="65" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="65" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A65" s="27">
         <v>63</v>
       </c>
@@ -8975,10 +8979,10 @@
         <f t="shared" si="4"/>
         <v>134866750</v>
       </c>
-      <c r="P65" s="86" t="s">
+      <c r="P65" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q65" s="86" t="s">
+      <c r="Q65" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R65" s="16" t="s">
@@ -8986,7 +8990,7 @@
       </c>
       <c r="S65" s="53"/>
     </row>
-    <row r="66" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="66" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A66" s="27">
         <v>64</v>
       </c>
@@ -9032,7 +9036,7 @@
       <c r="P66" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="Q66" s="86" t="s">
+      <c r="Q66" s="73" t="s">
         <v>97</v>
       </c>
       <c r="R66" s="16" t="s">
@@ -9040,7 +9044,7 @@
       </c>
       <c r="S66" s="53"/>
     </row>
-    <row r="67" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="67" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A67" s="27">
         <v>65</v>
       </c>
@@ -9084,10 +9088,10 @@
         <f t="shared" si="4"/>
         <v>56786000</v>
       </c>
-      <c r="P67" s="86" t="s">
+      <c r="P67" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q67" s="86" t="s">
+      <c r="Q67" s="73" t="s">
         <v>97</v>
       </c>
       <c r="R67" s="16" t="s">
@@ -9095,7 +9099,7 @@
       </c>
       <c r="S67" s="53"/>
     </row>
-    <row r="68" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="68" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A68" s="27">
         <v>66</v>
       </c>
@@ -9138,10 +9142,10 @@
         <f t="shared" ref="O68:O99" si="7">N68*E68</f>
         <v>92277250</v>
       </c>
-      <c r="P68" s="86" t="s">
+      <c r="P68" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q68" s="86" t="s">
+      <c r="Q68" s="73" t="s">
         <v>97</v>
       </c>
       <c r="R68" s="16" t="s">
@@ -9149,7 +9153,7 @@
       </c>
       <c r="S68" s="53"/>
     </row>
-    <row r="69" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="69" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A69" s="27">
         <v>67</v>
       </c>
@@ -9193,10 +9197,10 @@
         <f t="shared" si="7"/>
         <v>151437600</v>
       </c>
-      <c r="P69" s="86" t="s">
+      <c r="P69" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q69" s="86" t="s">
+      <c r="Q69" s="73" t="s">
         <v>357</v>
       </c>
       <c r="R69" s="16" t="s">
@@ -9204,7 +9208,7 @@
       </c>
       <c r="S69" s="53"/>
     </row>
-    <row r="70" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="70" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A70" s="27">
         <v>68</v>
       </c>
@@ -9247,10 +9251,10 @@
         <f t="shared" si="7"/>
         <v>134866750</v>
       </c>
-      <c r="P70" s="86" t="s">
+      <c r="P70" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q70" s="86" t="s">
+      <c r="Q70" s="73" t="s">
         <v>97</v>
       </c>
       <c r="R70" s="16" t="s">
@@ -9260,7 +9264,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="71" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="71" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A71" s="27">
         <v>69</v>
       </c>
@@ -9303,10 +9307,10 @@
         <f t="shared" si="7"/>
         <v>134866750</v>
       </c>
-      <c r="P71" s="86" t="s">
+      <c r="P71" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q71" s="86" t="s">
+      <c r="Q71" s="73" t="s">
         <v>356</v>
       </c>
       <c r="R71" s="16" t="s">
@@ -9314,7 +9318,7 @@
       </c>
       <c r="S71" s="53"/>
     </row>
-    <row r="72" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="72" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A72" s="27">
         <v>70</v>
       </c>
@@ -9363,7 +9367,7 @@
       <c r="P72" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="Q72" s="86" t="s">
+      <c r="Q72" s="73" t="s">
         <v>97</v>
       </c>
       <c r="R72" s="16" t="s">
@@ -9371,7 +9375,7 @@
       </c>
       <c r="S72" s="53"/>
     </row>
-    <row r="73" spans="1:19" s="30" customFormat="1" ht="96">
+    <row r="73" spans="1:19" s="30" customFormat="1" ht="96" hidden="1">
       <c r="A73" s="27">
         <v>71</v>
       </c>
@@ -9417,10 +9421,10 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P73" s="88" t="s">
+      <c r="P73" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="Q73" s="87" t="s">
+      <c r="Q73" s="74" t="s">
         <v>332</v>
       </c>
       <c r="R73" s="16" t="s">
@@ -9428,7 +9432,7 @@
       </c>
       <c r="S73" s="53"/>
     </row>
-    <row r="74" spans="1:19" s="30" customFormat="1" ht="80">
+    <row r="74" spans="1:19" s="30" customFormat="1" ht="80" hidden="1">
       <c r="A74" s="27">
         <v>72</v>
       </c>
@@ -9474,10 +9478,10 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P74" s="88" t="s">
+      <c r="P74" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="Q74" s="87" t="s">
+      <c r="Q74" s="74" t="s">
         <v>332</v>
       </c>
       <c r="R74" s="16" t="s">
@@ -9485,7 +9489,7 @@
       </c>
       <c r="S74" s="53"/>
     </row>
-    <row r="75" spans="1:19" s="30" customFormat="1" ht="80">
+    <row r="75" spans="1:19" s="30" customFormat="1" ht="80" hidden="1">
       <c r="A75" s="27">
         <v>73</v>
       </c>
@@ -9531,10 +9535,10 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P75" s="88" t="s">
+      <c r="P75" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="Q75" s="87" t="s">
+      <c r="Q75" s="74" t="s">
         <v>332</v>
       </c>
       <c r="R75" s="16" t="s">
@@ -9542,7 +9546,7 @@
       </c>
       <c r="S75" s="53"/>
     </row>
-    <row r="76" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="76" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A76" s="27">
         <v>74</v>
       </c>
@@ -9588,10 +9592,10 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P76" s="83" t="s">
+      <c r="P76" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q76" s="83" t="s">
+      <c r="Q76" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R76" s="16" t="s">
@@ -9599,7 +9603,7 @@
       </c>
       <c r="S76" s="53"/>
     </row>
-    <row r="77" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="77" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A77" s="27">
         <v>75</v>
       </c>
@@ -9645,10 +9649,10 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P77" s="83" t="s">
+      <c r="P77" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q77" s="83" t="s">
+      <c r="Q77" s="70" t="s">
         <v>355</v>
       </c>
       <c r="R77" s="16" t="s">
@@ -9656,7 +9660,7 @@
       </c>
       <c r="S77" s="53"/>
     </row>
-    <row r="78" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="78" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A78" s="27">
         <v>76</v>
       </c>
@@ -9702,10 +9706,10 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P78" s="83" t="s">
+      <c r="P78" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q78" s="83" t="s">
+      <c r="Q78" s="70" t="s">
         <v>355</v>
       </c>
       <c r="R78" s="16" t="s">
@@ -9713,7 +9717,7 @@
       </c>
       <c r="S78" s="53"/>
     </row>
-    <row r="79" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="79" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A79" s="27">
         <v>77</v>
       </c>
@@ -9759,10 +9763,10 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P79" s="83" t="s">
+      <c r="P79" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q79" s="83" t="s">
+      <c r="Q79" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R79" s="16" t="s">
@@ -9770,7 +9774,7 @@
       </c>
       <c r="S79" s="53"/>
     </row>
-    <row r="80" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="80" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A80" s="27">
         <v>78</v>
       </c>
@@ -9816,10 +9820,10 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P80" s="83" t="s">
+      <c r="P80" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q80" s="83" t="s">
+      <c r="Q80" s="70" t="s">
         <v>356</v>
       </c>
       <c r="R80" s="16" t="s">
@@ -9827,7 +9831,7 @@
       </c>
       <c r="S80" s="53"/>
     </row>
-    <row r="81" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="81" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A81" s="27">
         <v>79</v>
       </c>
@@ -9873,10 +9877,10 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P81" s="83" t="s">
+      <c r="P81" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q81" s="83" t="s">
+      <c r="Q81" s="70" t="s">
         <v>356</v>
       </c>
       <c r="R81" s="16" t="s">
@@ -9884,7 +9888,7 @@
       </c>
       <c r="S81" s="53"/>
     </row>
-    <row r="82" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="82" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A82" s="27">
         <v>80</v>
       </c>
@@ -9930,10 +9934,10 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P82" s="83" t="s">
+      <c r="P82" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q82" s="83" t="s">
+      <c r="Q82" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R82" s="16" t="s">
@@ -9941,7 +9945,7 @@
       </c>
       <c r="S82" s="53"/>
     </row>
-    <row r="83" spans="1:19" s="30" customFormat="1" ht="80">
+    <row r="83" spans="1:19" s="30" customFormat="1" ht="80" hidden="1">
       <c r="A83" s="27">
         <v>81</v>
       </c>
@@ -9987,10 +9991,10 @@
         <f t="shared" si="7"/>
         <v>76661100</v>
       </c>
-      <c r="P83" s="88" t="s">
+      <c r="P83" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="Q83" s="87" t="s">
+      <c r="Q83" s="74" t="s">
         <v>332</v>
       </c>
       <c r="R83" s="16" t="s">
@@ -9998,7 +10002,7 @@
       </c>
       <c r="S83" s="53"/>
     </row>
-    <row r="84" spans="1:19" s="30" customFormat="1" ht="32">
+    <row r="84" spans="1:19" s="30" customFormat="1" ht="32" hidden="1">
       <c r="A84" s="27">
         <v>82</v>
       </c>
@@ -10045,16 +10049,16 @@
         <f t="shared" si="7"/>
         <v>113572000</v>
       </c>
-      <c r="P84" s="83" t="s">
+      <c r="P84" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q84" s="83" t="s">
+      <c r="Q84" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R84" s="16"/>
       <c r="S84" s="53"/>
     </row>
-    <row r="85" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="85" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A85" s="27">
         <v>83</v>
       </c>
@@ -10100,16 +10104,16 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P85" s="83" t="s">
+      <c r="P85" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q85" s="83" t="s">
+      <c r="Q85" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R85" s="16"/>
       <c r="S85" s="53"/>
     </row>
-    <row r="86" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="86" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A86" s="27">
         <v>84</v>
       </c>
@@ -10155,10 +10159,10 @@
         <f t="shared" si="7"/>
         <v>113572000</v>
       </c>
-      <c r="P86" s="83" t="s">
+      <c r="P86" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q86" s="83" t="s">
+      <c r="Q86" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R86" s="16" t="s">
@@ -10166,7 +10170,7 @@
       </c>
       <c r="S86" s="53"/>
     </row>
-    <row r="87" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="87" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A87" s="27">
         <v>85</v>
       </c>
@@ -10212,16 +10216,16 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P87" s="83" t="s">
+      <c r="P87" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q87" s="83" t="s">
+      <c r="Q87" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R87" s="16"/>
       <c r="S87" s="53"/>
     </row>
-    <row r="88" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="88" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A88" s="27">
         <v>86</v>
       </c>
@@ -10267,16 +10271,16 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P88" s="83" t="s">
+      <c r="P88" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q88" s="83" t="s">
+      <c r="Q88" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R88" s="16"/>
       <c r="S88" s="53"/>
     </row>
-    <row r="89" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="89" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A89" s="27">
         <v>87</v>
       </c>
@@ -10322,16 +10326,16 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P89" s="83" t="s">
+      <c r="P89" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q89" s="83" t="s">
+      <c r="Q89" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R89" s="16"/>
       <c r="S89" s="53"/>
     </row>
-    <row r="90" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="90" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A90" s="27">
         <v>88</v>
       </c>
@@ -10377,16 +10381,16 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P90" s="83" t="s">
+      <c r="P90" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q90" s="83" t="s">
+      <c r="Q90" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R90" s="16"/>
       <c r="S90" s="53"/>
     </row>
-    <row r="91" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="91" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A91" s="27">
         <v>89</v>
       </c>
@@ -10432,10 +10436,10 @@
         <f t="shared" si="7"/>
         <v>85179000</v>
       </c>
-      <c r="P91" s="83" t="s">
+      <c r="P91" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q91" s="83" t="s">
+      <c r="Q91" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R91" s="16" t="s">
@@ -10443,7 +10447,7 @@
       </c>
       <c r="S91" s="53"/>
     </row>
-    <row r="92" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="92" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A92" s="27">
         <v>90</v>
       </c>
@@ -10489,10 +10493,10 @@
         <f t="shared" si="7"/>
         <v>76661100</v>
       </c>
-      <c r="P92" s="83" t="s">
+      <c r="P92" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q92" s="83" t="s">
+      <c r="Q92" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R92" s="16" t="s">
@@ -10500,7 +10504,7 @@
       </c>
       <c r="S92" s="53"/>
     </row>
-    <row r="93" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="93" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A93" s="27">
         <v>91</v>
       </c>
@@ -10549,7 +10553,7 @@
       <c r="P93" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="Q93" s="86" t="s">
+      <c r="Q93" s="73" t="s">
         <v>219</v>
       </c>
       <c r="R93" s="16" t="s">
@@ -10557,7 +10561,7 @@
       </c>
       <c r="S93" s="53"/>
     </row>
-    <row r="94" spans="1:19" s="30" customFormat="1" ht="38.25" customHeight="1">
+    <row r="94" spans="1:19" s="30" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A94" s="27">
         <v>92</v>
       </c>
@@ -10603,10 +10607,10 @@
         <f t="shared" si="7"/>
         <v>113572000</v>
       </c>
-      <c r="P94" s="83" t="s">
+      <c r="P94" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="Q94" s="85" t="s">
+      <c r="Q94" s="72" t="s">
         <v>219</v>
       </c>
       <c r="R94" s="16" t="s">
@@ -10614,7 +10618,7 @@
       </c>
       <c r="S94" s="53"/>
     </row>
-    <row r="95" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="95" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A95" s="27">
         <v>93</v>
       </c>
@@ -10652,16 +10656,16 @@
         <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
-      <c r="P95" s="86" t="s">
+      <c r="P95" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q95" s="86" t="s">
+      <c r="Q95" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R95" s="16"/>
       <c r="S95" s="53"/>
     </row>
-    <row r="96" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="96" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A96" s="27">
         <v>94</v>
       </c>
@@ -10699,16 +10703,16 @@
         <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
-      <c r="P96" s="86" t="s">
+      <c r="P96" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q96" s="86" t="s">
+      <c r="Q96" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R96" s="16"/>
       <c r="S96" s="53"/>
     </row>
-    <row r="97" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="97" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A97" s="27">
         <v>95</v>
       </c>
@@ -10746,16 +10750,16 @@
         <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
-      <c r="P97" s="86" t="s">
+      <c r="P97" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q97" s="86" t="s">
+      <c r="Q97" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R97" s="16"/>
       <c r="S97" s="53"/>
     </row>
-    <row r="98" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="98" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A98" s="27">
         <v>96</v>
       </c>
@@ -10793,16 +10797,16 @@
         <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
-      <c r="P98" s="86" t="s">
+      <c r="P98" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q98" s="86" t="s">
+      <c r="Q98" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R98" s="16"/>
       <c r="S98" s="53"/>
     </row>
-    <row r="99" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="99" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A99" s="27">
         <v>97</v>
       </c>
@@ -10840,16 +10844,16 @@
         <f t="shared" si="7"/>
         <v>92277250</v>
       </c>
-      <c r="P99" s="86" t="s">
+      <c r="P99" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q99" s="86" t="s">
+      <c r="Q99" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R99" s="16"/>
       <c r="S99" s="53"/>
     </row>
-    <row r="100" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="100" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A100" s="27">
         <v>98</v>
       </c>
@@ -10887,16 +10891,16 @@
         <f t="shared" ref="O100:O123" si="10">N100*E100</f>
         <v>70982500</v>
       </c>
-      <c r="P100" s="86" t="s">
+      <c r="P100" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q100" s="86" t="s">
+      <c r="Q100" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R100" s="16"/>
       <c r="S100" s="53"/>
     </row>
-    <row r="101" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="101" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A101" s="27">
         <v>99</v>
       </c>
@@ -10934,16 +10938,16 @@
         <f t="shared" si="10"/>
         <v>92277250</v>
       </c>
-      <c r="P101" s="86" t="s">
+      <c r="P101" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q101" s="86" t="s">
+      <c r="Q101" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R101" s="16"/>
       <c r="S101" s="53"/>
     </row>
-    <row r="102" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="102" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A102" s="27">
         <v>100</v>
       </c>
@@ -10981,16 +10985,16 @@
         <f t="shared" si="10"/>
         <v>92277250</v>
       </c>
-      <c r="P102" s="86" t="s">
+      <c r="P102" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q102" s="86" t="s">
+      <c r="Q102" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R102" s="16"/>
       <c r="S102" s="53"/>
     </row>
-    <row r="103" spans="1:19" s="30" customFormat="1" ht="48">
+    <row r="103" spans="1:19" s="30" customFormat="1" ht="48" hidden="1">
       <c r="A103" s="27">
         <v>101</v>
       </c>
@@ -11036,10 +11040,10 @@
         <f t="shared" si="10"/>
         <v>147643600</v>
       </c>
-      <c r="P103" s="86" t="s">
+      <c r="P103" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q103" s="83" t="s">
+      <c r="Q103" s="70" t="s">
         <v>334</v>
       </c>
       <c r="R103" s="16" t="s">
@@ -11047,7 +11051,7 @@
       </c>
       <c r="S103" s="53"/>
     </row>
-    <row r="104" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="104" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A104" s="27">
         <v>102</v>
       </c>
@@ -11093,16 +11097,16 @@
         <f t="shared" si="10"/>
         <v>99375500</v>
       </c>
-      <c r="P104" s="86" t="s">
+      <c r="P104" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q104" s="86" t="s">
+      <c r="Q104" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R104" s="16"/>
       <c r="S104" s="53"/>
     </row>
-    <row r="105" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="105" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A105" s="27">
         <v>103</v>
       </c>
@@ -11148,16 +11152,16 @@
         <f t="shared" si="10"/>
         <v>127768500</v>
       </c>
-      <c r="P105" s="86" t="s">
+      <c r="P105" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q105" s="86" t="s">
+      <c r="Q105" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R105" s="16"/>
       <c r="S105" s="53"/>
     </row>
-    <row r="106" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="106" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A106" s="27">
         <v>104</v>
       </c>
@@ -11203,16 +11207,16 @@
         <f t="shared" si="10"/>
         <v>156161500</v>
       </c>
-      <c r="P106" s="86" t="s">
+      <c r="P106" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q106" s="86" t="s">
+      <c r="Q106" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R106" s="16"/>
       <c r="S106" s="53"/>
     </row>
-    <row r="107" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="107" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A107" s="27">
         <v>105</v>
       </c>
@@ -11258,16 +11262,16 @@
         <f t="shared" si="10"/>
         <v>113572000</v>
       </c>
-      <c r="P107" s="86" t="s">
+      <c r="P107" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q107" s="86" t="s">
+      <c r="Q107" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R107" s="16"/>
       <c r="S107" s="53"/>
     </row>
-    <row r="108" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="108" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A108" s="27">
         <v>106</v>
       </c>
@@ -11314,16 +11318,16 @@
         <f t="shared" si="10"/>
         <v>189297000</v>
       </c>
-      <c r="P108" s="86" t="s">
+      <c r="P108" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q108" s="86" t="s">
+      <c r="Q108" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R108" s="16"/>
       <c r="S108" s="53"/>
     </row>
-    <row r="109" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="109" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A109" s="27">
         <v>107</v>
       </c>
@@ -11369,16 +11373,16 @@
         <f t="shared" si="10"/>
         <v>85179000</v>
       </c>
-      <c r="P109" s="86" t="s">
+      <c r="P109" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q109" s="86" t="s">
+      <c r="Q109" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R109" s="16"/>
       <c r="S109" s="53"/>
     </row>
-    <row r="110" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="110" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A110" s="27">
         <v>108</v>
       </c>
@@ -11424,16 +11428,16 @@
         <f t="shared" si="10"/>
         <v>107893400</v>
       </c>
-      <c r="P110" s="86" t="s">
+      <c r="P110" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q110" s="86" t="s">
+      <c r="Q110" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R110" s="16"/>
       <c r="S110" s="53"/>
     </row>
-    <row r="111" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="111" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A111" s="27">
         <v>109</v>
       </c>
@@ -11479,16 +11483,16 @@
         <f t="shared" si="10"/>
         <v>85179000</v>
       </c>
-      <c r="P111" s="86" t="s">
+      <c r="P111" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q111" s="86" t="s">
+      <c r="Q111" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R111" s="16"/>
       <c r="S111" s="53"/>
     </row>
-    <row r="112" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="112" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A112" s="27">
         <v>110</v>
       </c>
@@ -11534,16 +11538,16 @@
         <f t="shared" si="10"/>
         <v>85179000</v>
       </c>
-      <c r="P112" s="86" t="s">
+      <c r="P112" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q112" s="86" t="s">
+      <c r="Q112" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R112" s="16"/>
       <c r="S112" s="53"/>
     </row>
-    <row r="113" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="113" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A113" s="27">
         <v>111</v>
       </c>
@@ -11589,16 +11593,16 @@
         <f t="shared" si="10"/>
         <v>51107400</v>
       </c>
-      <c r="P113" s="86" t="s">
+      <c r="P113" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q113" s="86" t="s">
+      <c r="Q113" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R113" s="16"/>
       <c r="S113" s="53"/>
     </row>
-    <row r="114" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="114" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A114" s="27">
         <v>112</v>
       </c>
@@ -11644,16 +11648,16 @@
         <f t="shared" si="10"/>
         <v>92277250</v>
       </c>
-      <c r="P114" s="86" t="s">
+      <c r="P114" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q114" s="86" t="s">
+      <c r="Q114" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R114" s="16"/>
       <c r="S114" s="53"/>
     </row>
-    <row r="115" spans="1:19" s="30" customFormat="1" ht="58.5" customHeight="1">
+    <row r="115" spans="1:19" s="30" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="A115" s="27">
         <v>113</v>
       </c>
@@ -11699,10 +11703,10 @@
         <f t="shared" si="10"/>
         <v>130607800</v>
       </c>
-      <c r="P115" s="86" t="s">
+      <c r="P115" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q115" s="86" t="s">
+      <c r="Q115" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R115" s="16" t="s">
@@ -11710,7 +11714,7 @@
       </c>
       <c r="S115" s="53"/>
     </row>
-    <row r="116" spans="1:19" s="30" customFormat="1" ht="96">
+    <row r="116" spans="1:19" s="30" customFormat="1" ht="96" hidden="1">
       <c r="A116" s="27">
         <v>114</v>
       </c>
@@ -11757,10 +11761,10 @@
         <f t="shared" si="10"/>
         <v>151437600</v>
       </c>
-      <c r="P116" s="83" t="s">
+      <c r="P116" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q116" s="84" t="s">
+      <c r="Q116" s="71" t="s">
         <v>341</v>
       </c>
       <c r="R116" s="39" t="s">
@@ -11768,7 +11772,7 @@
       </c>
       <c r="S116" s="53"/>
     </row>
-    <row r="117" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="117" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A117" s="27">
         <v>115</v>
       </c>
@@ -11814,16 +11818,16 @@
         <f t="shared" si="10"/>
         <v>283945500</v>
       </c>
-      <c r="P117" s="83" t="s">
+      <c r="P117" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q117" s="83" t="s">
+      <c r="Q117" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R117" s="16"/>
       <c r="S117" s="53"/>
     </row>
-    <row r="118" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="118" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A118" s="27">
         <v>116</v>
       </c>
@@ -11864,16 +11868,16 @@
         <f t="shared" si="10"/>
         <v>141965000</v>
       </c>
-      <c r="P118" s="86" t="s">
+      <c r="P118" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q118" s="86" t="s">
+      <c r="Q118" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R118" s="16"/>
       <c r="S118" s="53"/>
     </row>
-    <row r="119" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="119" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A119" s="27">
         <v>117</v>
       </c>
@@ -11914,16 +11918,16 @@
         <f t="shared" si="10"/>
         <v>51107400</v>
       </c>
-      <c r="P119" s="86" t="s">
+      <c r="P119" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="Q119" s="86" t="s">
+      <c r="Q119" s="73" t="s">
         <v>329</v>
       </c>
       <c r="R119" s="16"/>
       <c r="S119" s="53"/>
     </row>
-    <row r="120" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="120" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A120" s="27">
         <v>118</v>
       </c>
@@ -11964,16 +11968,16 @@
         <f t="shared" si="10"/>
         <v>302875200</v>
       </c>
-      <c r="P120" s="83" t="s">
+      <c r="P120" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q120" s="83" t="s">
+      <c r="Q120" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R120" s="16"/>
       <c r="S120" s="53"/>
     </row>
-    <row r="121" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="121" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A121" s="27">
         <v>119</v>
       </c>
@@ -12014,16 +12018,16 @@
         <f t="shared" si="10"/>
         <v>302875200</v>
       </c>
-      <c r="P121" s="83" t="s">
+      <c r="P121" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q121" s="83" t="s">
+      <c r="Q121" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R121" s="16"/>
       <c r="S121" s="53"/>
     </row>
-    <row r="122" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="122" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A122" s="27">
         <v>120</v>
       </c>
@@ -12064,16 +12068,16 @@
         <f t="shared" si="10"/>
         <v>92277250</v>
       </c>
-      <c r="P122" s="83" t="s">
+      <c r="P122" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q122" s="83" t="s">
+      <c r="Q122" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R122" s="16"/>
       <c r="S122" s="53"/>
     </row>
-    <row r="123" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="123" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A123" s="27">
         <v>121</v>
       </c>
@@ -12114,16 +12118,16 @@
         <f t="shared" si="10"/>
         <v>127765620</v>
       </c>
-      <c r="P123" s="83" t="s">
+      <c r="P123" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q123" s="83" t="s">
+      <c r="Q123" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R123" s="16"/>
       <c r="S123" s="53"/>
     </row>
-    <row r="124" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="124" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A124" s="27">
         <v>122</v>
       </c>
@@ -12156,16 +12160,16 @@
         <f t="shared" ref="O124" si="12">N124*E124</f>
         <v>134863805</v>
       </c>
-      <c r="P124" s="83" t="s">
+      <c r="P124" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="Q124" s="83" t="s">
+      <c r="Q124" s="70" t="s">
         <v>329</v>
       </c>
       <c r="R124" s="16"/>
       <c r="S124" s="53"/>
     </row>
-    <row r="125" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="125" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A125" s="27">
         <v>123</v>
       </c>
@@ -12193,12 +12197,12 @@
       </c>
       <c r="N125" s="51"/>
       <c r="O125" s="50"/>
-      <c r="P125" s="83"/>
-      <c r="Q125" s="83"/>
+      <c r="P125" s="70"/>
+      <c r="Q125" s="70"/>
       <c r="R125" s="16"/>
       <c r="S125" s="53"/>
     </row>
-    <row r="126" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="126" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A126" s="27">
         <v>124</v>
       </c>
@@ -12226,12 +12230,12 @@
       </c>
       <c r="N126" s="51"/>
       <c r="O126" s="50"/>
-      <c r="P126" s="83"/>
-      <c r="Q126" s="83"/>
+      <c r="P126" s="70"/>
+      <c r="Q126" s="70"/>
       <c r="R126" s="16"/>
       <c r="S126" s="53"/>
     </row>
-    <row r="127" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="127" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A127" s="27">
         <v>125</v>
       </c>
@@ -12259,12 +12263,12 @@
       </c>
       <c r="N127" s="51"/>
       <c r="O127" s="50"/>
-      <c r="P127" s="83"/>
-      <c r="Q127" s="83"/>
+      <c r="P127" s="70"/>
+      <c r="Q127" s="70"/>
       <c r="R127" s="16"/>
       <c r="S127" s="53"/>
     </row>
-    <row r="128" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="128" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A128" s="27">
         <v>126</v>
       </c>
@@ -12292,12 +12296,12 @@
       </c>
       <c r="N128" s="51"/>
       <c r="O128" s="50"/>
-      <c r="P128" s="83"/>
-      <c r="Q128" s="83"/>
+      <c r="P128" s="70"/>
+      <c r="Q128" s="70"/>
       <c r="R128" s="16"/>
       <c r="S128" s="53"/>
     </row>
-    <row r="129" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="129" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A129" s="27">
         <v>127</v>
       </c>
@@ -12325,12 +12329,12 @@
       </c>
       <c r="N129" s="51"/>
       <c r="O129" s="50"/>
-      <c r="P129" s="83"/>
-      <c r="Q129" s="83"/>
+      <c r="P129" s="70"/>
+      <c r="Q129" s="70"/>
       <c r="R129" s="16"/>
       <c r="S129" s="53"/>
     </row>
-    <row r="130" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="130" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A130" s="27">
         <v>128</v>
       </c>
@@ -12358,12 +12362,12 @@
       </c>
       <c r="N130" s="51"/>
       <c r="O130" s="50"/>
-      <c r="P130" s="83"/>
-      <c r="Q130" s="83"/>
+      <c r="P130" s="70"/>
+      <c r="Q130" s="70"/>
       <c r="R130" s="16"/>
       <c r="S130" s="53"/>
     </row>
-    <row r="131" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="131" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A131" s="27">
         <v>129</v>
       </c>
@@ -12391,12 +12395,12 @@
       </c>
       <c r="N131" s="51"/>
       <c r="O131" s="50"/>
-      <c r="P131" s="83"/>
-      <c r="Q131" s="83"/>
+      <c r="P131" s="70"/>
+      <c r="Q131" s="70"/>
       <c r="R131" s="16"/>
       <c r="S131" s="53"/>
     </row>
-    <row r="132" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="132" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A132" s="27">
         <v>130</v>
       </c>
@@ -12424,12 +12428,12 @@
       </c>
       <c r="N132" s="51"/>
       <c r="O132" s="50"/>
-      <c r="P132" s="83"/>
-      <c r="Q132" s="83"/>
+      <c r="P132" s="70"/>
+      <c r="Q132" s="70"/>
       <c r="R132" s="16"/>
       <c r="S132" s="53"/>
     </row>
-    <row r="133" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="133" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A133" s="27">
         <v>131</v>
       </c>
@@ -12457,12 +12461,12 @@
       </c>
       <c r="N133" s="51"/>
       <c r="O133" s="50"/>
-      <c r="P133" s="83"/>
-      <c r="Q133" s="83"/>
+      <c r="P133" s="70"/>
+      <c r="Q133" s="70"/>
       <c r="R133" s="16"/>
       <c r="S133" s="53"/>
     </row>
-    <row r="134" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="134" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A134" s="27">
         <v>132</v>
       </c>
@@ -12490,12 +12494,12 @@
       </c>
       <c r="N134" s="51"/>
       <c r="O134" s="50"/>
-      <c r="P134" s="83"/>
-      <c r="Q134" s="83"/>
+      <c r="P134" s="70"/>
+      <c r="Q134" s="70"/>
       <c r="R134" s="16"/>
       <c r="S134" s="53"/>
     </row>
-    <row r="135" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="135" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A135" s="27">
         <v>133</v>
       </c>
@@ -12523,12 +12527,12 @@
       </c>
       <c r="N135" s="51"/>
       <c r="O135" s="50"/>
-      <c r="P135" s="83"/>
-      <c r="Q135" s="83"/>
+      <c r="P135" s="70"/>
+      <c r="Q135" s="70"/>
       <c r="R135" s="16"/>
       <c r="S135" s="53"/>
     </row>
-    <row r="136" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="136" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A136" s="27">
         <v>134</v>
       </c>
@@ -12556,12 +12560,12 @@
       </c>
       <c r="N136" s="51"/>
       <c r="O136" s="50"/>
-      <c r="P136" s="83"/>
-      <c r="Q136" s="83"/>
+      <c r="P136" s="70"/>
+      <c r="Q136" s="70"/>
       <c r="R136" s="16"/>
       <c r="S136" s="53"/>
     </row>
-    <row r="137" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="137" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A137" s="27">
         <v>135</v>
       </c>
@@ -12589,12 +12593,12 @@
       </c>
       <c r="N137" s="51"/>
       <c r="O137" s="50"/>
-      <c r="P137" s="83"/>
-      <c r="Q137" s="83"/>
+      <c r="P137" s="70"/>
+      <c r="Q137" s="70"/>
       <c r="R137" s="16"/>
       <c r="S137" s="53"/>
     </row>
-    <row r="138" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="138" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A138" s="27">
         <v>136</v>
       </c>
@@ -12622,12 +12626,12 @@
       </c>
       <c r="N138" s="51"/>
       <c r="O138" s="50"/>
-      <c r="P138" s="83"/>
-      <c r="Q138" s="83"/>
+      <c r="P138" s="70"/>
+      <c r="Q138" s="70"/>
       <c r="R138" s="16"/>
       <c r="S138" s="53"/>
     </row>
-    <row r="139" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="139" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A139" s="27">
         <v>137</v>
       </c>
@@ -12655,12 +12659,12 @@
       </c>
       <c r="N139" s="51"/>
       <c r="O139" s="50"/>
-      <c r="P139" s="83"/>
-      <c r="Q139" s="83"/>
+      <c r="P139" s="70"/>
+      <c r="Q139" s="70"/>
       <c r="R139" s="16"/>
       <c r="S139" s="53"/>
     </row>
-    <row r="140" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="140" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A140" s="27">
         <v>138</v>
       </c>
@@ -12688,12 +12692,12 @@
       </c>
       <c r="N140" s="51"/>
       <c r="O140" s="50"/>
-      <c r="P140" s="83"/>
-      <c r="Q140" s="83"/>
+      <c r="P140" s="70"/>
+      <c r="Q140" s="70"/>
       <c r="R140" s="16"/>
       <c r="S140" s="53"/>
     </row>
-    <row r="141" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="141" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A141" s="27">
         <v>139</v>
       </c>
@@ -12721,8 +12725,8 @@
       </c>
       <c r="N141" s="51"/>
       <c r="O141" s="50"/>
-      <c r="P141" s="83"/>
-      <c r="Q141" s="83"/>
+      <c r="P141" s="70"/>
+      <c r="Q141" s="70"/>
       <c r="R141" s="16"/>
       <c r="S141" s="53"/>
     </row>
@@ -12730,10 +12734,10 @@
       <c r="A142" s="27">
         <v>140</v>
       </c>
-      <c r="B142" s="64" t="s">
+      <c r="B142" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="C142" s="64" t="s">
+      <c r="C142" s="89" t="s">
         <v>441</v>
       </c>
       <c r="D142" s="15"/>
@@ -12754,8 +12758,8 @@
       </c>
       <c r="N142" s="51"/>
       <c r="O142" s="50"/>
-      <c r="P142" s="83"/>
-      <c r="Q142" s="83"/>
+      <c r="P142" s="70"/>
+      <c r="Q142" s="70"/>
       <c r="R142" s="16"/>
       <c r="S142" s="53"/>
     </row>
@@ -12763,10 +12767,10 @@
       <c r="A143" s="27">
         <v>141</v>
       </c>
-      <c r="B143" s="64" t="s">
+      <c r="B143" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="C143" s="64" t="s">
+      <c r="C143" s="89" t="s">
         <v>408</v>
       </c>
       <c r="D143" s="15"/>
@@ -12787,12 +12791,12 @@
       </c>
       <c r="N143" s="51"/>
       <c r="O143" s="50"/>
-      <c r="P143" s="83"/>
-      <c r="Q143" s="83"/>
+      <c r="P143" s="70"/>
+      <c r="Q143" s="70"/>
       <c r="R143" s="16"/>
       <c r="S143" s="53"/>
     </row>
-    <row r="144" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="144" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A144" s="27">
         <v>142</v>
       </c>
@@ -12820,12 +12824,12 @@
       </c>
       <c r="N144" s="51"/>
       <c r="O144" s="50"/>
-      <c r="P144" s="83"/>
-      <c r="Q144" s="83"/>
+      <c r="P144" s="70"/>
+      <c r="Q144" s="70"/>
       <c r="R144" s="16"/>
       <c r="S144" s="53"/>
     </row>
-    <row r="145" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="145" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A145" s="27">
         <v>143</v>
       </c>
@@ -12853,12 +12857,12 @@
       </c>
       <c r="N145" s="51"/>
       <c r="O145" s="50"/>
-      <c r="P145" s="83"/>
-      <c r="Q145" s="83"/>
+      <c r="P145" s="70"/>
+      <c r="Q145" s="70"/>
       <c r="R145" s="16"/>
       <c r="S145" s="53"/>
     </row>
-    <row r="146" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="146" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A146" s="27">
         <v>144</v>
       </c>
@@ -12886,12 +12890,12 @@
       </c>
       <c r="N146" s="51"/>
       <c r="O146" s="50"/>
-      <c r="P146" s="83"/>
-      <c r="Q146" s="83"/>
+      <c r="P146" s="70"/>
+      <c r="Q146" s="70"/>
       <c r="R146" s="16"/>
       <c r="S146" s="53"/>
     </row>
-    <row r="147" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="147" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A147" s="27">
         <v>145</v>
       </c>
@@ -12919,12 +12923,12 @@
       </c>
       <c r="N147" s="51"/>
       <c r="O147" s="50"/>
-      <c r="P147" s="83"/>
-      <c r="Q147" s="83"/>
+      <c r="P147" s="70"/>
+      <c r="Q147" s="70"/>
       <c r="R147" s="16"/>
       <c r="S147" s="53"/>
     </row>
-    <row r="148" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="148" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A148" s="27">
         <v>146</v>
       </c>
@@ -12952,12 +12956,12 @@
       </c>
       <c r="N148" s="51"/>
       <c r="O148" s="50"/>
-      <c r="P148" s="83"/>
-      <c r="Q148" s="83"/>
+      <c r="P148" s="70"/>
+      <c r="Q148" s="70"/>
       <c r="R148" s="16"/>
       <c r="S148" s="53"/>
     </row>
-    <row r="149" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="149" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A149" s="27">
         <v>147</v>
       </c>
@@ -12985,12 +12989,12 @@
       </c>
       <c r="N149" s="51"/>
       <c r="O149" s="50"/>
-      <c r="P149" s="83"/>
-      <c r="Q149" s="83"/>
+      <c r="P149" s="70"/>
+      <c r="Q149" s="70"/>
       <c r="R149" s="16"/>
       <c r="S149" s="53"/>
     </row>
-    <row r="150" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="150" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A150" s="27">
         <v>148</v>
       </c>
@@ -13018,12 +13022,12 @@
       </c>
       <c r="N150" s="51"/>
       <c r="O150" s="50"/>
-      <c r="P150" s="83"/>
-      <c r="Q150" s="83"/>
+      <c r="P150" s="70"/>
+      <c r="Q150" s="70"/>
       <c r="R150" s="16"/>
       <c r="S150" s="53"/>
     </row>
-    <row r="151" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="151" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A151" s="27">
         <v>149</v>
       </c>
@@ -13051,12 +13055,12 @@
       </c>
       <c r="N151" s="51"/>
       <c r="O151" s="50"/>
-      <c r="P151" s="83"/>
-      <c r="Q151" s="83"/>
+      <c r="P151" s="70"/>
+      <c r="Q151" s="70"/>
       <c r="R151" s="16"/>
       <c r="S151" s="53"/>
     </row>
-    <row r="152" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="152" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A152" s="27">
         <v>150</v>
       </c>
@@ -13084,12 +13088,12 @@
       </c>
       <c r="N152" s="51"/>
       <c r="O152" s="50"/>
-      <c r="P152" s="83"/>
-      <c r="Q152" s="83"/>
+      <c r="P152" s="70"/>
+      <c r="Q152" s="70"/>
       <c r="R152" s="16"/>
       <c r="S152" s="53"/>
     </row>
-    <row r="153" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="153" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A153" s="27">
         <v>151</v>
       </c>
@@ -13117,12 +13121,12 @@
       </c>
       <c r="N153" s="51"/>
       <c r="O153" s="50"/>
-      <c r="P153" s="83"/>
-      <c r="Q153" s="83"/>
+      <c r="P153" s="70"/>
+      <c r="Q153" s="70"/>
       <c r="R153" s="16"/>
       <c r="S153" s="53"/>
     </row>
-    <row r="154" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="154" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A154" s="27">
         <v>152</v>
       </c>
@@ -13150,12 +13154,12 @@
       </c>
       <c r="N154" s="51"/>
       <c r="O154" s="50"/>
-      <c r="P154" s="83"/>
-      <c r="Q154" s="83"/>
+      <c r="P154" s="70"/>
+      <c r="Q154" s="70"/>
       <c r="R154" s="16"/>
       <c r="S154" s="53"/>
     </row>
-    <row r="155" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="155" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A155" s="27">
         <v>153</v>
       </c>
@@ -13183,12 +13187,12 @@
       </c>
       <c r="N155" s="51"/>
       <c r="O155" s="50"/>
-      <c r="P155" s="83"/>
-      <c r="Q155" s="83"/>
+      <c r="P155" s="70"/>
+      <c r="Q155" s="70"/>
       <c r="R155" s="16"/>
       <c r="S155" s="53"/>
     </row>
-    <row r="156" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="156" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A156" s="27">
         <v>154</v>
       </c>
@@ -13216,12 +13220,12 @@
       </c>
       <c r="N156" s="51"/>
       <c r="O156" s="50"/>
-      <c r="P156" s="83"/>
-      <c r="Q156" s="83"/>
+      <c r="P156" s="70"/>
+      <c r="Q156" s="70"/>
       <c r="R156" s="16"/>
       <c r="S156" s="53"/>
     </row>
-    <row r="157" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="157" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A157" s="27">
         <v>155</v>
       </c>
@@ -13249,12 +13253,12 @@
       </c>
       <c r="N157" s="51"/>
       <c r="O157" s="50"/>
-      <c r="P157" s="83"/>
-      <c r="Q157" s="83"/>
+      <c r="P157" s="70"/>
+      <c r="Q157" s="70"/>
       <c r="R157" s="16"/>
       <c r="S157" s="53"/>
     </row>
-    <row r="158" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="158" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A158" s="27">
         <v>156</v>
       </c>
@@ -13282,8 +13286,8 @@
       </c>
       <c r="N158" s="51"/>
       <c r="O158" s="50"/>
-      <c r="P158" s="83"/>
-      <c r="Q158" s="83"/>
+      <c r="P158" s="70"/>
+      <c r="Q158" s="70"/>
       <c r="R158" s="16"/>
       <c r="S158" s="53"/>
     </row>
@@ -13291,10 +13295,10 @@
       <c r="A159" s="27">
         <v>157</v>
       </c>
-      <c r="B159" s="64" t="s">
+      <c r="B159" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C159" s="15" t="s">
+      <c r="C159" s="89" t="s">
         <v>427</v>
       </c>
       <c r="D159" s="15"/>
@@ -13315,8 +13319,8 @@
       </c>
       <c r="N159" s="51"/>
       <c r="O159" s="50"/>
-      <c r="P159" s="83"/>
-      <c r="Q159" s="83"/>
+      <c r="P159" s="70"/>
+      <c r="Q159" s="70"/>
       <c r="R159" s="16"/>
       <c r="S159" s="53"/>
     </row>
@@ -13324,10 +13328,10 @@
       <c r="A160" s="27">
         <v>158</v>
       </c>
-      <c r="B160" s="64" t="s">
+      <c r="B160" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C160" s="15" t="s">
+      <c r="C160" s="89" t="s">
         <v>271</v>
       </c>
       <c r="D160" s="15"/>
@@ -13348,8 +13352,8 @@
       </c>
       <c r="N160" s="51"/>
       <c r="O160" s="50"/>
-      <c r="P160" s="83"/>
-      <c r="Q160" s="83"/>
+      <c r="P160" s="70"/>
+      <c r="Q160" s="70"/>
       <c r="R160" s="16"/>
       <c r="S160" s="53"/>
     </row>
@@ -13357,10 +13361,10 @@
       <c r="A161" s="27">
         <v>159</v>
       </c>
-      <c r="B161" s="64" t="s">
+      <c r="B161" s="89" t="s">
         <v>428</v>
       </c>
-      <c r="C161" s="15" t="s">
+      <c r="C161" s="89" t="s">
         <v>429</v>
       </c>
       <c r="D161" s="15"/>
@@ -13381,8 +13385,8 @@
       </c>
       <c r="N161" s="51"/>
       <c r="O161" s="50"/>
-      <c r="P161" s="83"/>
-      <c r="Q161" s="83"/>
+      <c r="P161" s="70"/>
+      <c r="Q161" s="70"/>
       <c r="R161" s="16"/>
       <c r="S161" s="53"/>
     </row>
@@ -13390,10 +13394,10 @@
       <c r="A162" s="27">
         <v>160</v>
       </c>
-      <c r="B162" s="64" t="s">
+      <c r="B162" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="C162" s="15" t="s">
+      <c r="C162" s="89" t="s">
         <v>430</v>
       </c>
       <c r="D162" s="15"/>
@@ -13414,8 +13418,8 @@
       </c>
       <c r="N162" s="51"/>
       <c r="O162" s="50"/>
-      <c r="P162" s="83"/>
-      <c r="Q162" s="83"/>
+      <c r="P162" s="70"/>
+      <c r="Q162" s="70"/>
       <c r="R162" s="16"/>
       <c r="S162" s="53"/>
     </row>
@@ -13423,10 +13427,10 @@
       <c r="A163" s="27">
         <v>161</v>
       </c>
-      <c r="B163" s="64" t="s">
+      <c r="B163" s="89" t="s">
         <v>431</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="C163" s="89" t="s">
         <v>138</v>
       </c>
       <c r="D163" s="15"/>
@@ -13447,8 +13451,8 @@
       </c>
       <c r="N163" s="51"/>
       <c r="O163" s="50"/>
-      <c r="P163" s="83"/>
-      <c r="Q163" s="83"/>
+      <c r="P163" s="70"/>
+      <c r="Q163" s="70"/>
       <c r="R163" s="16"/>
       <c r="S163" s="53"/>
     </row>
@@ -13456,10 +13460,10 @@
       <c r="A164" s="27">
         <v>162</v>
       </c>
-      <c r="B164" s="64" t="s">
+      <c r="B164" s="89" t="s">
         <v>431</v>
       </c>
-      <c r="C164" s="15" t="s">
+      <c r="C164" s="89" t="s">
         <v>432</v>
       </c>
       <c r="D164" s="15"/>
@@ -13480,8 +13484,8 @@
       </c>
       <c r="N164" s="51"/>
       <c r="O164" s="50"/>
-      <c r="P164" s="83"/>
-      <c r="Q164" s="83"/>
+      <c r="P164" s="70"/>
+      <c r="Q164" s="70"/>
       <c r="R164" s="16"/>
       <c r="S164" s="53"/>
     </row>
@@ -13489,10 +13493,10 @@
       <c r="A165" s="27">
         <v>163</v>
       </c>
-      <c r="B165" s="64" t="s">
+      <c r="B165" s="89" t="s">
         <v>433</v>
       </c>
-      <c r="C165" s="15" t="s">
+      <c r="C165" s="89" t="s">
         <v>434</v>
       </c>
       <c r="D165" s="15"/>
@@ -13513,8 +13517,8 @@
       </c>
       <c r="N165" s="51"/>
       <c r="O165" s="50"/>
-      <c r="P165" s="83"/>
-      <c r="Q165" s="83"/>
+      <c r="P165" s="70"/>
+      <c r="Q165" s="70"/>
       <c r="R165" s="16"/>
       <c r="S165" s="53"/>
     </row>
@@ -13522,10 +13526,10 @@
       <c r="A166" s="27">
         <v>164</v>
       </c>
-      <c r="B166" s="64" t="s">
+      <c r="B166" s="89" t="s">
         <v>433</v>
       </c>
-      <c r="C166" s="15" t="s">
+      <c r="C166" s="89" t="s">
         <v>435</v>
       </c>
       <c r="D166" s="15"/>
@@ -13546,8 +13550,8 @@
       </c>
       <c r="N166" s="51"/>
       <c r="O166" s="50"/>
-      <c r="P166" s="83"/>
-      <c r="Q166" s="83"/>
+      <c r="P166" s="70"/>
+      <c r="Q166" s="70"/>
       <c r="R166" s="16"/>
       <c r="S166" s="53"/>
     </row>
@@ -13555,10 +13559,10 @@
       <c r="A167" s="27">
         <v>165</v>
       </c>
-      <c r="B167" s="64" t="s">
+      <c r="B167" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="C167" s="15" t="s">
+      <c r="C167" s="89" t="s">
         <v>437</v>
       </c>
       <c r="D167" s="15"/>
@@ -13579,8 +13583,8 @@
       </c>
       <c r="N167" s="51"/>
       <c r="O167" s="50"/>
-      <c r="P167" s="83"/>
-      <c r="Q167" s="83"/>
+      <c r="P167" s="70"/>
+      <c r="Q167" s="70"/>
       <c r="R167" s="16"/>
       <c r="S167" s="53"/>
     </row>
@@ -13588,10 +13592,10 @@
       <c r="A168" s="27">
         <v>166</v>
       </c>
-      <c r="B168" s="64" t="s">
+      <c r="B168" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="C168" s="15" t="s">
+      <c r="C168" s="89" t="s">
         <v>438</v>
       </c>
       <c r="D168" s="15"/>
@@ -13612,8 +13616,8 @@
       </c>
       <c r="N168" s="51"/>
       <c r="O168" s="50"/>
-      <c r="P168" s="83"/>
-      <c r="Q168" s="83"/>
+      <c r="P168" s="70"/>
+      <c r="Q168" s="70"/>
       <c r="R168" s="16"/>
       <c r="S168" s="53"/>
     </row>
@@ -13621,10 +13625,10 @@
       <c r="A169" s="27">
         <v>167</v>
       </c>
-      <c r="B169" s="64" t="s">
+      <c r="B169" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="C169" s="89" t="s">
         <v>439</v>
       </c>
       <c r="D169" s="15"/>
@@ -13645,16 +13649,16 @@
       </c>
       <c r="N169" s="51"/>
       <c r="O169" s="50"/>
-      <c r="P169" s="83"/>
-      <c r="Q169" s="83"/>
+      <c r="P169" s="70"/>
+      <c r="Q169" s="70"/>
       <c r="R169" s="16"/>
       <c r="S169" s="53"/>
     </row>
-    <row r="170" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="170" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A170" s="27">
         <v>168</v>
       </c>
-      <c r="B170" s="80" t="s">
+      <c r="B170" s="67" t="s">
         <v>110</v>
       </c>
       <c r="C170" s="15" t="s">
@@ -13678,16 +13682,16 @@
       </c>
       <c r="N170" s="51"/>
       <c r="O170" s="50"/>
-      <c r="P170" s="83"/>
-      <c r="Q170" s="83"/>
+      <c r="P170" s="70"/>
+      <c r="Q170" s="70"/>
       <c r="R170" s="16"/>
       <c r="S170" s="53"/>
     </row>
-    <row r="171" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="171" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A171" s="27">
         <v>169</v>
       </c>
-      <c r="B171" s="82" t="s">
+      <c r="B171" s="69" t="s">
         <v>443</v>
       </c>
       <c r="C171" s="15" t="s">
@@ -13711,16 +13715,16 @@
       </c>
       <c r="N171" s="51"/>
       <c r="O171" s="50"/>
-      <c r="P171" s="83"/>
-      <c r="Q171" s="83"/>
+      <c r="P171" s="70"/>
+      <c r="Q171" s="70"/>
       <c r="R171" s="16"/>
       <c r="S171" s="53"/>
     </row>
-    <row r="172" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="172" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A172" s="27">
         <v>170</v>
       </c>
-      <c r="B172" s="82" t="s">
+      <c r="B172" s="69" t="s">
         <v>433</v>
       </c>
       <c r="C172" s="15" t="s">
@@ -13744,16 +13748,16 @@
       </c>
       <c r="N172" s="51"/>
       <c r="O172" s="50"/>
-      <c r="P172" s="83"/>
-      <c r="Q172" s="83"/>
+      <c r="P172" s="70"/>
+      <c r="Q172" s="70"/>
       <c r="R172" s="16"/>
       <c r="S172" s="53"/>
     </row>
-    <row r="173" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="173" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A173" s="27">
         <v>171</v>
       </c>
-      <c r="B173" s="82" t="s">
+      <c r="B173" s="69" t="s">
         <v>436</v>
       </c>
       <c r="C173" s="15" t="s">
@@ -13777,16 +13781,16 @@
       </c>
       <c r="N173" s="51"/>
       <c r="O173" s="50"/>
-      <c r="P173" s="83"/>
-      <c r="Q173" s="83"/>
+      <c r="P173" s="70"/>
+      <c r="Q173" s="70"/>
       <c r="R173" s="16"/>
       <c r="S173" s="53"/>
     </row>
-    <row r="174" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="174" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A174" s="27">
         <v>172</v>
       </c>
-      <c r="B174" s="82" t="s">
+      <c r="B174" s="69" t="s">
         <v>110</v>
       </c>
       <c r="C174" s="15" t="s">
@@ -13810,16 +13814,16 @@
       </c>
       <c r="N174" s="51"/>
       <c r="O174" s="50"/>
-      <c r="P174" s="83"/>
-      <c r="Q174" s="83"/>
+      <c r="P174" s="70"/>
+      <c r="Q174" s="70"/>
       <c r="R174" s="16"/>
       <c r="S174" s="53"/>
     </row>
-    <row r="175" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="175" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A175" s="27">
         <v>173</v>
       </c>
-      <c r="B175" s="82" t="s">
+      <c r="B175" s="69" t="s">
         <v>115</v>
       </c>
       <c r="C175" s="15" t="s">
@@ -13841,16 +13845,16 @@
       </c>
       <c r="N175" s="51"/>
       <c r="O175" s="50"/>
-      <c r="P175" s="83" t="s">
+      <c r="P175" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="Q175" s="83"/>
+      <c r="Q175" s="70"/>
       <c r="R175" s="16"/>
       <c r="S175" s="53"/>
     </row>
-    <row r="176" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="176" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A176" s="27"/>
-      <c r="B176" s="81" t="s">
+      <c r="B176" s="68" t="s">
         <v>112</v>
       </c>
       <c r="C176" s="15" t="s">
@@ -13870,14 +13874,14 @@
       <c r="M176" s="29"/>
       <c r="N176" s="51"/>
       <c r="O176" s="50"/>
-      <c r="P176" s="83"/>
-      <c r="Q176" s="83"/>
+      <c r="P176" s="70"/>
+      <c r="Q176" s="70"/>
       <c r="R176" s="16"/>
       <c r="S176" s="53"/>
     </row>
-    <row r="177" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="177" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A177" s="27"/>
-      <c r="B177" s="81"/>
+      <c r="B177" s="68"/>
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
@@ -13891,14 +13895,14 @@
       <c r="M177" s="29"/>
       <c r="N177" s="51"/>
       <c r="O177" s="50"/>
-      <c r="P177" s="83"/>
-      <c r="Q177" s="83"/>
+      <c r="P177" s="70"/>
+      <c r="Q177" s="70"/>
       <c r="R177" s="16"/>
       <c r="S177" s="53"/>
     </row>
-    <row r="178" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="178" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A178" s="27"/>
-      <c r="B178" s="81"/>
+      <c r="B178" s="68"/>
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
@@ -13912,14 +13916,14 @@
       <c r="M178" s="29"/>
       <c r="N178" s="51"/>
       <c r="O178" s="50"/>
-      <c r="P178" s="83"/>
-      <c r="Q178" s="83"/>
+      <c r="P178" s="70"/>
+      <c r="Q178" s="70"/>
       <c r="R178" s="16"/>
       <c r="S178" s="53"/>
     </row>
-    <row r="179" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="179" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A179" s="27"/>
-      <c r="B179" s="81"/>
+      <c r="B179" s="68"/>
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
@@ -13933,14 +13937,14 @@
       <c r="M179" s="29"/>
       <c r="N179" s="51"/>
       <c r="O179" s="50"/>
-      <c r="P179" s="83"/>
-      <c r="Q179" s="83"/>
+      <c r="P179" s="70"/>
+      <c r="Q179" s="70"/>
       <c r="R179" s="16"/>
       <c r="S179" s="53"/>
     </row>
-    <row r="180" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="180" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A180" s="27"/>
-      <c r="B180" s="81"/>
+      <c r="B180" s="68"/>
       <c r="C180" s="15"/>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
@@ -13954,14 +13958,14 @@
       <c r="M180" s="29"/>
       <c r="N180" s="51"/>
       <c r="O180" s="50"/>
-      <c r="P180" s="83"/>
-      <c r="Q180" s="83"/>
+      <c r="P180" s="70"/>
+      <c r="Q180" s="70"/>
       <c r="R180" s="16"/>
       <c r="S180" s="53"/>
     </row>
-    <row r="181" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="181" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A181" s="27"/>
-      <c r="B181" s="81"/>
+      <c r="B181" s="68"/>
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
@@ -13975,14 +13979,14 @@
       <c r="M181" s="29"/>
       <c r="N181" s="51"/>
       <c r="O181" s="50"/>
-      <c r="P181" s="83"/>
-      <c r="Q181" s="83"/>
+      <c r="P181" s="70"/>
+      <c r="Q181" s="70"/>
       <c r="R181" s="16"/>
       <c r="S181" s="53"/>
     </row>
-    <row r="182" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="182" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A182" s="27"/>
-      <c r="B182" s="81"/>
+      <c r="B182" s="68"/>
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
@@ -13996,14 +14000,14 @@
       <c r="M182" s="29"/>
       <c r="N182" s="51"/>
       <c r="O182" s="50"/>
-      <c r="P182" s="83"/>
-      <c r="Q182" s="83"/>
+      <c r="P182" s="70"/>
+      <c r="Q182" s="70"/>
       <c r="R182" s="16"/>
       <c r="S182" s="53"/>
     </row>
-    <row r="183" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="183" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A183" s="27"/>
-      <c r="B183" s="81"/>
+      <c r="B183" s="68"/>
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
@@ -14017,14 +14021,14 @@
       <c r="M183" s="29"/>
       <c r="N183" s="51"/>
       <c r="O183" s="50"/>
-      <c r="P183" s="83"/>
-      <c r="Q183" s="83"/>
+      <c r="P183" s="70"/>
+      <c r="Q183" s="70"/>
       <c r="R183" s="16"/>
       <c r="S183" s="53"/>
     </row>
-    <row r="184" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="184" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A184" s="27"/>
-      <c r="B184" s="81"/>
+      <c r="B184" s="68"/>
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
@@ -14038,14 +14042,14 @@
       <c r="M184" s="29"/>
       <c r="N184" s="51"/>
       <c r="O184" s="50"/>
-      <c r="P184" s="83"/>
-      <c r="Q184" s="83"/>
+      <c r="P184" s="70"/>
+      <c r="Q184" s="70"/>
       <c r="R184" s="16"/>
       <c r="S184" s="53"/>
     </row>
-    <row r="185" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="185" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A185" s="27"/>
-      <c r="B185" s="81"/>
+      <c r="B185" s="68"/>
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
@@ -14059,14 +14063,14 @@
       <c r="M185" s="29"/>
       <c r="N185" s="51"/>
       <c r="O185" s="50"/>
-      <c r="P185" s="83"/>
-      <c r="Q185" s="83"/>
+      <c r="P185" s="70"/>
+      <c r="Q185" s="70"/>
       <c r="R185" s="16"/>
       <c r="S185" s="53"/>
     </row>
-    <row r="186" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="186" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A186" s="27"/>
-      <c r="B186" s="81"/>
+      <c r="B186" s="68"/>
       <c r="C186" s="15"/>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
@@ -14080,14 +14084,14 @@
       <c r="M186" s="29"/>
       <c r="N186" s="51"/>
       <c r="O186" s="50"/>
-      <c r="P186" s="83"/>
-      <c r="Q186" s="83"/>
+      <c r="P186" s="70"/>
+      <c r="Q186" s="70"/>
       <c r="R186" s="16"/>
       <c r="S186" s="53"/>
     </row>
-    <row r="187" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="187" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A187" s="27"/>
-      <c r="B187" s="81"/>
+      <c r="B187" s="68"/>
       <c r="C187" s="15"/>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -14101,14 +14105,14 @@
       <c r="M187" s="29"/>
       <c r="N187" s="51"/>
       <c r="O187" s="50"/>
-      <c r="P187" s="83"/>
-      <c r="Q187" s="83"/>
+      <c r="P187" s="70"/>
+      <c r="Q187" s="70"/>
       <c r="R187" s="16"/>
       <c r="S187" s="53"/>
     </row>
-    <row r="188" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="188" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A188" s="27"/>
-      <c r="B188" s="81"/>
+      <c r="B188" s="68"/>
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
@@ -14122,14 +14126,14 @@
       <c r="M188" s="29"/>
       <c r="N188" s="51"/>
       <c r="O188" s="50"/>
-      <c r="P188" s="83"/>
-      <c r="Q188" s="83"/>
+      <c r="P188" s="70"/>
+      <c r="Q188" s="70"/>
       <c r="R188" s="16"/>
       <c r="S188" s="53"/>
     </row>
-    <row r="189" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="189" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A189" s="27"/>
-      <c r="B189" s="81"/>
+      <c r="B189" s="68"/>
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
@@ -14143,14 +14147,14 @@
       <c r="M189" s="29"/>
       <c r="N189" s="51"/>
       <c r="O189" s="50"/>
-      <c r="P189" s="83"/>
-      <c r="Q189" s="83"/>
+      <c r="P189" s="70"/>
+      <c r="Q189" s="70"/>
       <c r="R189" s="16"/>
       <c r="S189" s="53"/>
     </row>
-    <row r="190" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="190" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A190" s="27"/>
-      <c r="B190" s="81"/>
+      <c r="B190" s="68"/>
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
@@ -14164,14 +14168,14 @@
       <c r="M190" s="29"/>
       <c r="N190" s="51"/>
       <c r="O190" s="50"/>
-      <c r="P190" s="83"/>
-      <c r="Q190" s="83"/>
+      <c r="P190" s="70"/>
+      <c r="Q190" s="70"/>
       <c r="R190" s="16"/>
       <c r="S190" s="53"/>
     </row>
-    <row r="191" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="191" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A191" s="27"/>
-      <c r="B191" s="81"/>
+      <c r="B191" s="68"/>
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -14185,14 +14189,14 @@
       <c r="M191" s="29"/>
       <c r="N191" s="51"/>
       <c r="O191" s="50"/>
-      <c r="P191" s="83"/>
-      <c r="Q191" s="83"/>
+      <c r="P191" s="70"/>
+      <c r="Q191" s="70"/>
       <c r="R191" s="16"/>
       <c r="S191" s="53"/>
     </row>
-    <row r="192" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="192" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A192" s="27"/>
-      <c r="B192" s="81"/>
+      <c r="B192" s="68"/>
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
@@ -14206,14 +14210,14 @@
       <c r="M192" s="29"/>
       <c r="N192" s="51"/>
       <c r="O192" s="50"/>
-      <c r="P192" s="83"/>
-      <c r="Q192" s="83"/>
+      <c r="P192" s="70"/>
+      <c r="Q192" s="70"/>
       <c r="R192" s="16"/>
       <c r="S192" s="53"/>
     </row>
-    <row r="193" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="193" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A193" s="27"/>
-      <c r="B193" s="81"/>
+      <c r="B193" s="68"/>
       <c r="C193" s="15"/>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
@@ -14227,14 +14231,14 @@
       <c r="M193" s="29"/>
       <c r="N193" s="51"/>
       <c r="O193" s="50"/>
-      <c r="P193" s="83"/>
-      <c r="Q193" s="83"/>
+      <c r="P193" s="70"/>
+      <c r="Q193" s="70"/>
       <c r="R193" s="16"/>
       <c r="S193" s="53"/>
     </row>
-    <row r="194" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="194" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A194" s="27"/>
-      <c r="B194" s="81"/>
+      <c r="B194" s="68"/>
       <c r="C194" s="15"/>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
@@ -14248,14 +14252,14 @@
       <c r="M194" s="29"/>
       <c r="N194" s="51"/>
       <c r="O194" s="50"/>
-      <c r="P194" s="83"/>
-      <c r="Q194" s="83"/>
+      <c r="P194" s="70"/>
+      <c r="Q194" s="70"/>
       <c r="R194" s="16"/>
       <c r="S194" s="53"/>
     </row>
-    <row r="195" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="195" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A195" s="27"/>
-      <c r="B195" s="81"/>
+      <c r="B195" s="68"/>
       <c r="C195" s="15"/>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -14269,14 +14273,14 @@
       <c r="M195" s="29"/>
       <c r="N195" s="51"/>
       <c r="O195" s="50"/>
-      <c r="P195" s="83"/>
-      <c r="Q195" s="83"/>
+      <c r="P195" s="70"/>
+      <c r="Q195" s="70"/>
       <c r="R195" s="16"/>
       <c r="S195" s="53"/>
     </row>
-    <row r="196" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="196" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A196" s="27"/>
-      <c r="B196" s="81"/>
+      <c r="B196" s="68"/>
       <c r="C196" s="15"/>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -14290,14 +14294,14 @@
       <c r="M196" s="29"/>
       <c r="N196" s="51"/>
       <c r="O196" s="50"/>
-      <c r="P196" s="83"/>
-      <c r="Q196" s="83"/>
+      <c r="P196" s="70"/>
+      <c r="Q196" s="70"/>
       <c r="R196" s="16"/>
       <c r="S196" s="53"/>
     </row>
-    <row r="197" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="197" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A197" s="27"/>
-      <c r="B197" s="81"/>
+      <c r="B197" s="68"/>
       <c r="C197" s="15"/>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -14311,14 +14315,14 @@
       <c r="M197" s="29"/>
       <c r="N197" s="51"/>
       <c r="O197" s="50"/>
-      <c r="P197" s="83"/>
-      <c r="Q197" s="83"/>
+      <c r="P197" s="70"/>
+      <c r="Q197" s="70"/>
       <c r="R197" s="16"/>
       <c r="S197" s="53"/>
     </row>
-    <row r="198" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="198" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A198" s="27"/>
-      <c r="B198" s="81"/>
+      <c r="B198" s="68"/>
       <c r="C198" s="15"/>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -14332,14 +14336,14 @@
       <c r="M198" s="29"/>
       <c r="N198" s="51"/>
       <c r="O198" s="50"/>
-      <c r="P198" s="83"/>
-      <c r="Q198" s="83"/>
+      <c r="P198" s="70"/>
+      <c r="Q198" s="70"/>
       <c r="R198" s="16"/>
       <c r="S198" s="53"/>
     </row>
-    <row r="199" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="199" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A199" s="27"/>
-      <c r="B199" s="81"/>
+      <c r="B199" s="68"/>
       <c r="C199" s="15"/>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -14353,14 +14357,14 @@
       <c r="M199" s="29"/>
       <c r="N199" s="51"/>
       <c r="O199" s="50"/>
-      <c r="P199" s="83"/>
-      <c r="Q199" s="83"/>
+      <c r="P199" s="70"/>
+      <c r="Q199" s="70"/>
       <c r="R199" s="16"/>
       <c r="S199" s="53"/>
     </row>
-    <row r="200" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="200" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A200" s="27"/>
-      <c r="B200" s="81"/>
+      <c r="B200" s="68"/>
       <c r="C200" s="15"/>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -14374,14 +14378,14 @@
       <c r="M200" s="29"/>
       <c r="N200" s="51"/>
       <c r="O200" s="50"/>
-      <c r="P200" s="83"/>
-      <c r="Q200" s="83"/>
+      <c r="P200" s="70"/>
+      <c r="Q200" s="70"/>
       <c r="R200" s="16"/>
       <c r="S200" s="53"/>
     </row>
-    <row r="201" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="201" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A201" s="27"/>
-      <c r="B201" s="81"/>
+      <c r="B201" s="68"/>
       <c r="C201" s="15"/>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -14395,14 +14399,14 @@
       <c r="M201" s="29"/>
       <c r="N201" s="51"/>
       <c r="O201" s="50"/>
-      <c r="P201" s="83"/>
-      <c r="Q201" s="83"/>
+      <c r="P201" s="70"/>
+      <c r="Q201" s="70"/>
       <c r="R201" s="16"/>
       <c r="S201" s="53"/>
     </row>
-    <row r="202" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="202" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A202" s="27"/>
-      <c r="B202" s="81"/>
+      <c r="B202" s="68"/>
       <c r="C202" s="15"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
@@ -14416,14 +14420,14 @@
       <c r="M202" s="29"/>
       <c r="N202" s="51"/>
       <c r="O202" s="50"/>
-      <c r="P202" s="83"/>
-      <c r="Q202" s="83"/>
+      <c r="P202" s="70"/>
+      <c r="Q202" s="70"/>
       <c r="R202" s="16"/>
       <c r="S202" s="53"/>
     </row>
-    <row r="203" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="203" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A203" s="27"/>
-      <c r="B203" s="81"/>
+      <c r="B203" s="68"/>
       <c r="C203" s="15"/>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -14437,14 +14441,14 @@
       <c r="M203" s="29"/>
       <c r="N203" s="51"/>
       <c r="O203" s="50"/>
-      <c r="P203" s="83"/>
-      <c r="Q203" s="83"/>
+      <c r="P203" s="70"/>
+      <c r="Q203" s="70"/>
       <c r="R203" s="16"/>
       <c r="S203" s="53"/>
     </row>
-    <row r="204" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="204" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A204" s="27"/>
-      <c r="B204" s="81"/>
+      <c r="B204" s="68"/>
       <c r="C204" s="15"/>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -14458,14 +14462,14 @@
       <c r="M204" s="29"/>
       <c r="N204" s="51"/>
       <c r="O204" s="50"/>
-      <c r="P204" s="83"/>
-      <c r="Q204" s="83"/>
+      <c r="P204" s="70"/>
+      <c r="Q204" s="70"/>
       <c r="R204" s="16"/>
       <c r="S204" s="53"/>
     </row>
-    <row r="205" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="205" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A205" s="27"/>
-      <c r="B205" s="81"/>
+      <c r="B205" s="68"/>
       <c r="C205" s="15"/>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
@@ -14479,14 +14483,14 @@
       <c r="M205" s="29"/>
       <c r="N205" s="51"/>
       <c r="O205" s="50"/>
-      <c r="P205" s="83"/>
-      <c r="Q205" s="83"/>
+      <c r="P205" s="70"/>
+      <c r="Q205" s="70"/>
       <c r="R205" s="16"/>
       <c r="S205" s="53"/>
     </row>
-    <row r="206" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="206" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A206" s="27"/>
-      <c r="B206" s="81"/>
+      <c r="B206" s="68"/>
       <c r="C206" s="15"/>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
@@ -14500,12 +14504,12 @@
       <c r="M206" s="29"/>
       <c r="N206" s="51"/>
       <c r="O206" s="50"/>
-      <c r="P206" s="83"/>
-      <c r="Q206" s="83"/>
+      <c r="P206" s="70"/>
+      <c r="Q206" s="70"/>
       <c r="R206" s="16"/>
       <c r="S206" s="53"/>
     </row>
-    <row r="207" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="207" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A207" s="27"/>
       <c r="B207" s="63"/>
       <c r="C207" s="15"/>
@@ -14521,12 +14525,12 @@
       <c r="M207" s="29"/>
       <c r="N207" s="51"/>
       <c r="O207" s="50"/>
-      <c r="P207" s="83"/>
-      <c r="Q207" s="83"/>
+      <c r="P207" s="70"/>
+      <c r="Q207" s="70"/>
       <c r="R207" s="16"/>
       <c r="S207" s="53"/>
     </row>
-    <row r="208" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="208" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A208" s="27"/>
       <c r="B208" s="63"/>
       <c r="C208" s="15"/>
@@ -14542,12 +14546,12 @@
       <c r="M208" s="29"/>
       <c r="N208" s="51"/>
       <c r="O208" s="50"/>
-      <c r="P208" s="83"/>
-      <c r="Q208" s="83"/>
+      <c r="P208" s="70"/>
+      <c r="Q208" s="70"/>
       <c r="R208" s="16"/>
       <c r="S208" s="53"/>
     </row>
-    <row r="209" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="209" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A209" s="27"/>
       <c r="B209" s="63"/>
       <c r="C209" s="15"/>
@@ -14563,12 +14567,12 @@
       <c r="M209" s="29"/>
       <c r="N209" s="51"/>
       <c r="O209" s="50"/>
-      <c r="P209" s="83"/>
-      <c r="Q209" s="83"/>
+      <c r="P209" s="70"/>
+      <c r="Q209" s="70"/>
       <c r="R209" s="16"/>
       <c r="S209" s="53"/>
     </row>
-    <row r="210" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="210" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A210" s="27"/>
       <c r="B210" s="15"/>
       <c r="C210" s="15"/>
@@ -14584,12 +14588,12 @@
       <c r="M210" s="29"/>
       <c r="N210" s="51"/>
       <c r="O210" s="50"/>
-      <c r="P210" s="83"/>
-      <c r="Q210" s="83"/>
+      <c r="P210" s="70"/>
+      <c r="Q210" s="70"/>
       <c r="R210" s="16"/>
       <c r="S210" s="53"/>
     </row>
-    <row r="211" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="211" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A211" s="27"/>
       <c r="B211" s="15"/>
       <c r="C211" s="15"/>
@@ -14605,12 +14609,12 @@
       <c r="M211" s="29"/>
       <c r="N211" s="51"/>
       <c r="O211" s="50"/>
-      <c r="P211" s="83"/>
-      <c r="Q211" s="83"/>
+      <c r="P211" s="70"/>
+      <c r="Q211" s="70"/>
       <c r="R211" s="16"/>
       <c r="S211" s="53"/>
     </row>
-    <row r="212" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="212" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A212" s="27"/>
       <c r="B212" s="15"/>
       <c r="C212" s="15"/>
@@ -14626,12 +14630,12 @@
       <c r="M212" s="29"/>
       <c r="N212" s="51"/>
       <c r="O212" s="50"/>
-      <c r="P212" s="83"/>
-      <c r="Q212" s="83"/>
+      <c r="P212" s="70"/>
+      <c r="Q212" s="70"/>
       <c r="R212" s="16"/>
       <c r="S212" s="53"/>
     </row>
-    <row r="213" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="213" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A213" s="27"/>
       <c r="B213" s="15"/>
       <c r="C213" s="15"/>
@@ -14647,12 +14651,12 @@
       <c r="M213" s="29"/>
       <c r="N213" s="51"/>
       <c r="O213" s="50"/>
-      <c r="P213" s="83"/>
-      <c r="Q213" s="83"/>
+      <c r="P213" s="70"/>
+      <c r="Q213" s="70"/>
       <c r="R213" s="16"/>
       <c r="S213" s="53"/>
     </row>
-    <row r="214" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="214" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A214" s="27"/>
       <c r="B214" s="15"/>
       <c r="C214" s="15"/>
@@ -14668,12 +14672,12 @@
       <c r="M214" s="29"/>
       <c r="N214" s="51"/>
       <c r="O214" s="50"/>
-      <c r="P214" s="83"/>
-      <c r="Q214" s="83"/>
+      <c r="P214" s="70"/>
+      <c r="Q214" s="70"/>
       <c r="R214" s="16"/>
       <c r="S214" s="53"/>
     </row>
-    <row r="215" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="215" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A215" s="27"/>
       <c r="B215" s="15"/>
       <c r="C215" s="15"/>
@@ -14689,12 +14693,12 @@
       <c r="M215" s="29"/>
       <c r="N215" s="51"/>
       <c r="O215" s="50"/>
-      <c r="P215" s="83"/>
-      <c r="Q215" s="83"/>
+      <c r="P215" s="70"/>
+      <c r="Q215" s="70"/>
       <c r="R215" s="16"/>
       <c r="S215" s="53"/>
     </row>
-    <row r="216" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="216" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A216" s="27"/>
       <c r="B216" s="15"/>
       <c r="C216" s="15"/>
@@ -14710,12 +14714,12 @@
       <c r="M216" s="29"/>
       <c r="N216" s="51"/>
       <c r="O216" s="50"/>
-      <c r="P216" s="83"/>
-      <c r="Q216" s="83"/>
+      <c r="P216" s="70"/>
+      <c r="Q216" s="70"/>
       <c r="R216" s="16"/>
       <c r="S216" s="53"/>
     </row>
-    <row r="217" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="217" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A217" s="27"/>
       <c r="B217" s="15"/>
       <c r="C217" s="15"/>
@@ -14731,12 +14735,12 @@
       <c r="M217" s="29"/>
       <c r="N217" s="51"/>
       <c r="O217" s="50"/>
-      <c r="P217" s="83"/>
-      <c r="Q217" s="83"/>
+      <c r="P217" s="70"/>
+      <c r="Q217" s="70"/>
       <c r="R217" s="16"/>
       <c r="S217" s="53"/>
     </row>
-    <row r="218" spans="1:19" s="30" customFormat="1" ht="21">
+    <row r="218" spans="1:19" s="30" customFormat="1" ht="21" hidden="1">
       <c r="A218" s="27"/>
       <c r="B218" s="15"/>
       <c r="C218" s="15"/>
@@ -14752,31 +14756,31 @@
       <c r="M218" s="29"/>
       <c r="N218" s="51"/>
       <c r="O218" s="50"/>
-      <c r="P218" s="83"/>
-      <c r="Q218" s="83"/>
+      <c r="P218" s="70"/>
+      <c r="Q218" s="70"/>
       <c r="R218" s="16"/>
       <c r="S218" s="53"/>
     </row>
-    <row r="219" spans="1:19" ht="35.5" customHeight="1">
-      <c r="A219" s="68" t="s">
+    <row r="219" spans="1:19" ht="35.5" hidden="1" customHeight="1">
+      <c r="A219" s="77" t="s">
         <v>365</v>
       </c>
-      <c r="B219" s="68"/>
-      <c r="C219" s="68"/>
-      <c r="D219" s="68"/>
-      <c r="E219" s="68"/>
-      <c r="F219" s="68"/>
-      <c r="G219" s="68"/>
-      <c r="H219" s="68"/>
-      <c r="I219" s="68"/>
-      <c r="J219" s="68"/>
-      <c r="K219" s="68"/>
-      <c r="L219" s="68"/>
-      <c r="M219" s="68"/>
-      <c r="N219" s="68"/>
-      <c r="O219" s="68"/>
-      <c r="P219" s="68"/>
-      <c r="Q219" s="68"/>
+      <c r="B219" s="77"/>
+      <c r="C219" s="77"/>
+      <c r="D219" s="77"/>
+      <c r="E219" s="77"/>
+      <c r="F219" s="77"/>
+      <c r="G219" s="77"/>
+      <c r="H219" s="77"/>
+      <c r="I219" s="77"/>
+      <c r="J219" s="77"/>
+      <c r="K219" s="77"/>
+      <c r="L219" s="77"/>
+      <c r="M219" s="77"/>
+      <c r="N219" s="77"/>
+      <c r="O219" s="77"/>
+      <c r="P219" s="77"/>
+      <c r="Q219" s="77"/>
     </row>
     <row r="220" spans="1:19">
       <c r="A220" s="32"/>
@@ -14833,7 +14837,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S219" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:S219" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="NO CONTINUO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A219:Q219"/>
@@ -16091,15 +16101,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="32" hidden="1">
       <c r="A7" s="2" t="s">
@@ -16558,15 +16568,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="32">
       <c r="A2" s="8" t="s">
@@ -16592,15 +16602,15 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="80" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" ht="32">
       <c r="A4" s="3" t="s">
@@ -16672,15 +16682,15 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
     </row>
     <row r="8" spans="1:7" ht="32">
       <c r="A8" s="3" t="s">
@@ -16913,15 +16923,15 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
     </row>
     <row r="19" spans="1:7" ht="32">
       <c r="A19" s="3" t="s">
@@ -17016,15 +17026,15 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
     </row>
     <row r="24" spans="1:7" ht="64">
       <c r="A24" s="3" t="s">
@@ -17227,18 +17237,18 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="75"/>
+      <c r="E7" s="84"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="E8" s="76"/>
+      <c r="E8" s="85"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
@@ -17275,10 +17285,10 @@
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="86" t="s">
         <v>255</v>
       </c>
-      <c r="E11" s="77"/>
+      <c r="E11" s="86"/>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="11" t="s">
@@ -17317,16 +17327,16 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="78"/>
+      <c r="E17" s="87"/>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="88" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="79"/>
+      <c r="E18" s="88"/>
     </row>
     <row r="19" spans="4:5">
       <c r="D19" s="12" t="s">
@@ -17345,10 +17355,10 @@
       </c>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="74"/>
+      <c r="E21" s="83"/>
     </row>
     <row r="22" spans="4:5">
       <c r="D22" s="13" t="s">
